--- a/SC Done.xlsx
+++ b/SC Done.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\randy.parsons\Desktop\Scheduling Stuff\EXCEL SHEETS FOR ACCESS\Finalized Sch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stephen.holwell\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15165" windowHeight="10245" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="1168" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2143" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="62">
   <si>
     <t>Term</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>S249</t>
+  </si>
+  <si>
+    <t>S131</t>
   </si>
 </sst>
 </file>
@@ -690,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N150"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="O141" sqref="O141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,8 +807,8 @@
       <c r="I3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="3">
-        <v>250</v>
+      <c r="J3" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>18</v>
@@ -848,8 +851,8 @@
       <c r="I4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="7">
-        <v>250</v>
+      <c r="J4" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>18</v>
@@ -892,8 +895,8 @@
       <c r="I5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="7">
-        <v>250</v>
+      <c r="J5" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>19</v>
@@ -936,8 +939,8 @@
       <c r="I6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="7">
-        <v>250</v>
+      <c r="J6" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>19</v>
@@ -980,8 +983,8 @@
       <c r="I7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="7">
-        <v>250</v>
+      <c r="J7" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>20</v>
@@ -1024,8 +1027,8 @@
       <c r="I8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="7">
-        <v>250</v>
+      <c r="J8" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>21</v>
@@ -1068,8 +1071,8 @@
       <c r="I9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="7">
-        <v>250</v>
+      <c r="J9" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>21</v>
@@ -1112,8 +1115,8 @@
       <c r="I10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="7">
-        <v>250</v>
+      <c r="J10" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>22</v>
@@ -1156,8 +1159,8 @@
       <c r="I11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="7">
-        <v>250</v>
+      <c r="J11" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>22</v>
@@ -1200,8 +1203,8 @@
       <c r="I12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="7">
-        <v>212</v>
+      <c r="J12" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>18</v>
@@ -1244,8 +1247,8 @@
       <c r="I13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="7">
-        <v>212</v>
+      <c r="J13" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>20</v>
@@ -1288,8 +1291,8 @@
       <c r="I14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="7">
-        <v>212</v>
+      <c r="J14" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>18</v>
@@ -1332,8 +1335,8 @@
       <c r="I15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="7">
-        <v>212</v>
+      <c r="J15" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>21</v>
@@ -1762,8 +1765,8 @@
       <c r="I25" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J25" s="7">
-        <v>211</v>
+      <c r="J25" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>18</v>
@@ -1806,8 +1809,8 @@
       <c r="I26" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="7">
-        <v>211</v>
+      <c r="J26" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>19</v>
@@ -1850,8 +1853,8 @@
       <c r="I27" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="7">
-        <v>211</v>
+      <c r="J27" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>19</v>
@@ -1894,8 +1897,8 @@
       <c r="I28" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="7">
-        <v>211</v>
+      <c r="J28" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>20</v>
@@ -1938,8 +1941,8 @@
       <c r="I29" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J29" s="7">
-        <v>211</v>
+      <c r="J29" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>21</v>
@@ -1982,8 +1985,8 @@
       <c r="I30" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="7">
-        <v>211</v>
+      <c r="J30" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>21</v>
@@ -2026,8 +2029,8 @@
       <c r="I31" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J31" s="7">
-        <v>211</v>
+      <c r="J31" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>22</v>
@@ -2070,8 +2073,8 @@
       <c r="I32" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J32" s="7">
-        <v>211</v>
+      <c r="J32" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>22</v>
@@ -2114,8 +2117,8 @@
       <c r="I33" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J33" s="7">
-        <v>212</v>
+      <c r="J33" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>18</v>
@@ -2158,8 +2161,8 @@
       <c r="I34" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J34" s="7">
-        <v>212</v>
+      <c r="J34" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>18</v>
@@ -2202,8 +2205,8 @@
       <c r="I35" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J35" s="7">
-        <v>212</v>
+      <c r="J35" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>19</v>
@@ -2246,8 +2249,8 @@
       <c r="I36" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J36" s="11">
-        <v>212</v>
+      <c r="J36" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="K36" s="11" t="s">
         <v>21</v>
@@ -2290,8 +2293,8 @@
       <c r="I37" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J37" s="3">
-        <v>211</v>
+      <c r="J37" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>18</v>
@@ -2334,8 +2337,8 @@
       <c r="I38" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J38" s="7">
-        <v>211</v>
+      <c r="J38" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>18</v>
@@ -2378,8 +2381,8 @@
       <c r="I39" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J39" s="7">
-        <v>211</v>
+      <c r="J39" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>19</v>
@@ -2422,8 +2425,8 @@
       <c r="I40" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J40" s="7">
-        <v>211</v>
+      <c r="J40" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>19</v>
@@ -2466,8 +2469,8 @@
       <c r="I41" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J41" s="7">
-        <v>211</v>
+      <c r="J41" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>20</v>
@@ -2510,8 +2513,8 @@
       <c r="I42" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J42" s="7">
-        <v>211</v>
+      <c r="J42" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>20</v>
@@ -2554,8 +2557,8 @@
       <c r="I43" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J43" s="7">
-        <v>211</v>
+      <c r="J43" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>21</v>
@@ -2598,8 +2601,8 @@
       <c r="I44" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J44" s="7">
-        <v>211</v>
+      <c r="J44" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>21</v>
@@ -2642,8 +2645,8 @@
       <c r="I45" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J45" s="7">
-        <v>211</v>
+      <c r="J45" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>22</v>
@@ -2686,8 +2689,8 @@
       <c r="I46" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J46" s="7">
-        <v>211</v>
+      <c r="J46" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>18</v>
@@ -2730,8 +2733,8 @@
       <c r="I47" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J47" s="7">
-        <v>211</v>
+      <c r="J47" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>20</v>
@@ -2774,8 +2777,8 @@
       <c r="I48" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J48" s="7">
-        <v>212</v>
+      <c r="J48" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>18</v>
@@ -2818,8 +2821,8 @@
       <c r="I49" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J49" s="7">
-        <v>212</v>
+      <c r="J49" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>19</v>
@@ -2862,8 +2865,8 @@
       <c r="I50" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J50" s="11">
-        <v>212</v>
+      <c r="J50" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="K50" s="11" t="s">
         <v>21</v>
@@ -3126,8 +3129,8 @@
       <c r="I56" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J56" s="7">
-        <v>250</v>
+      <c r="J56" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>18</v>
@@ -3170,8 +3173,8 @@
       <c r="I57" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J57" s="7">
-        <v>250</v>
+      <c r="J57" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>18</v>
@@ -3214,8 +3217,8 @@
       <c r="I58" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="7">
-        <v>250</v>
+      <c r="J58" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>19</v>
@@ -3258,8 +3261,8 @@
       <c r="I59" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J59" s="7">
-        <v>133</v>
+      <c r="J59" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>20</v>
@@ -3302,8 +3305,8 @@
       <c r="I60" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J60" s="7">
-        <v>250</v>
+      <c r="J60" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>20</v>
@@ -3346,8 +3349,8 @@
       <c r="I61" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J61" s="7">
-        <v>133</v>
+      <c r="J61" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>21</v>
@@ -3390,8 +3393,8 @@
       <c r="I62" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J62" s="7">
-        <v>250</v>
+      <c r="J62" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="K62" s="7" t="s">
         <v>21</v>
@@ -3434,8 +3437,8 @@
       <c r="I63" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J63" s="7">
-        <v>133</v>
+      <c r="J63" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>22</v>
@@ -3478,8 +3481,8 @@
       <c r="I64" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J64" s="7">
-        <v>133</v>
+      <c r="J64" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="K64" s="7" t="s">
         <v>18</v>
@@ -3522,8 +3525,8 @@
       <c r="I65" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J65" s="7">
-        <v>250</v>
+      <c r="J65" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>19</v>
@@ -3566,8 +3569,8 @@
       <c r="I66" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J66" s="7">
-        <v>212</v>
+      <c r="J66" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="K66" s="7" t="s">
         <v>19</v>
@@ -3610,8 +3613,8 @@
       <c r="I67" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J67" s="11">
-        <v>212</v>
+      <c r="J67" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="K67" s="11" t="s">
         <v>20</v>
@@ -3654,8 +3657,8 @@
       <c r="I68" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J68" s="3">
-        <v>133</v>
+      <c r="J68" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>18</v>
@@ -3698,8 +3701,8 @@
       <c r="I69" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J69" s="7">
-        <v>133</v>
+      <c r="J69" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>19</v>
@@ -3742,8 +3745,8 @@
       <c r="I70" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J70" s="7">
-        <v>133</v>
+      <c r="J70" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="K70" s="7" t="s">
         <v>20</v>
@@ -3786,8 +3789,8 @@
       <c r="I71" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J71" s="7">
-        <v>133</v>
+      <c r="J71" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="K71" s="7" t="s">
         <v>20</v>
@@ -3830,8 +3833,8 @@
       <c r="I72" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J72" s="7">
-        <v>133</v>
+      <c r="J72" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="K72" s="7" t="s">
         <v>21</v>
@@ -3874,8 +3877,8 @@
       <c r="I73" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J73" s="7">
-        <v>133</v>
+      <c r="J73" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="K73" s="7" t="s">
         <v>21</v>
@@ -4138,8 +4141,8 @@
       <c r="I79" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J79" s="7">
-        <v>133</v>
+      <c r="J79" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="K79" s="7" t="s">
         <v>18</v>
@@ -4182,8 +4185,8 @@
       <c r="I80" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J80" s="7">
-        <v>133</v>
+      <c r="J80" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="K80" s="7" t="s">
         <v>20</v>
@@ -4226,8 +4229,8 @@
       <c r="I81" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J81" s="7">
-        <v>212</v>
+      <c r="J81" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="K81" s="7" t="s">
         <v>19</v>
@@ -4270,8 +4273,8 @@
       <c r="I82" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J82" s="11">
-        <v>212</v>
+      <c r="J82" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="K82" s="11" t="s">
         <v>21</v>
@@ -4314,8 +4317,8 @@
       <c r="I83" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J83" s="3">
-        <v>153</v>
+      <c r="J83" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>18</v>
@@ -4358,8 +4361,8 @@
       <c r="I84" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J84" s="7">
-        <v>206</v>
+      <c r="J84" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="K84" s="7" t="s">
         <v>18</v>
@@ -4402,8 +4405,8 @@
       <c r="I85" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J85" s="7">
-        <v>153</v>
+      <c r="J85" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="K85" s="7" t="s">
         <v>19</v>
@@ -4446,8 +4449,8 @@
       <c r="I86" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J86" s="7">
-        <v>206</v>
+      <c r="J86" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="K86" s="7" t="s">
         <v>19</v>
@@ -4490,8 +4493,8 @@
       <c r="I87" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J87" s="7">
-        <v>153</v>
+      <c r="J87" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="K87" s="7" t="s">
         <v>20</v>
@@ -4534,8 +4537,8 @@
       <c r="I88" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J88" s="7">
-        <v>206</v>
+      <c r="J88" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="K88" s="7" t="s">
         <v>20</v>
@@ -4578,8 +4581,8 @@
       <c r="I89" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J89" s="7">
-        <v>153</v>
+      <c r="J89" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="K89" s="7" t="s">
         <v>21</v>
@@ -4622,8 +4625,8 @@
       <c r="I90" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J90" s="7">
-        <v>206</v>
+      <c r="J90" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="K90" s="7" t="s">
         <v>21</v>
@@ -4666,8 +4669,8 @@
       <c r="I91" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J91" s="7">
-        <v>206</v>
+      <c r="J91" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="K91" s="7" t="s">
         <v>22</v>
@@ -4710,8 +4713,8 @@
       <c r="I92" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J92" s="7">
-        <v>206</v>
+      <c r="J92" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="K92" s="7" t="s">
         <v>22</v>
@@ -4754,8 +4757,8 @@
       <c r="I93" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J93" s="7">
-        <v>153</v>
+      <c r="J93" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="K93" s="7" t="s">
         <v>18</v>
@@ -4798,8 +4801,8 @@
       <c r="I94" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J94" s="7">
-        <v>153</v>
+      <c r="J94" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="K94" s="7" t="s">
         <v>19</v>
@@ -4842,8 +4845,8 @@
       <c r="I95" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J95" s="7">
-        <v>153</v>
+      <c r="J95" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="K95" s="7" t="s">
         <v>20</v>
@@ -4886,8 +4889,8 @@
       <c r="I96" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J96" s="7">
-        <v>153</v>
+      <c r="J96" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="K96" s="7" t="s">
         <v>20</v>
@@ -4930,8 +4933,8 @@
       <c r="I97" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J97" s="7">
-        <v>153</v>
+      <c r="J97" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="K97" s="7" t="s">
         <v>21</v>
@@ -4974,8 +4977,8 @@
       <c r="I98" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J98" s="7">
-        <v>153</v>
+      <c r="J98" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="K98" s="7" t="s">
         <v>21</v>
@@ -5018,8 +5021,8 @@
       <c r="I99" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J99" s="7">
-        <v>241</v>
+      <c r="J99" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="K99" s="7" t="s">
         <v>18</v>
@@ -5062,8 +5065,8 @@
       <c r="I100" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J100" s="7">
-        <v>206</v>
+      <c r="J100" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="K100" s="7" t="s">
         <v>20</v>
@@ -5106,8 +5109,8 @@
       <c r="I101" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J101" s="7">
-        <v>241</v>
+      <c r="J101" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="K101" s="7" t="s">
         <v>21</v>
@@ -5150,8 +5153,8 @@
       <c r="I102" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J102" s="7">
-        <v>206</v>
+      <c r="J102" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="K102" s="7" t="s">
         <v>18</v>
@@ -5194,8 +5197,8 @@
       <c r="I103" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J103" s="11">
-        <v>206</v>
+      <c r="J103" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="K103" s="11" t="s">
         <v>19</v>
@@ -5238,8 +5241,8 @@
       <c r="I104" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J104" s="3">
-        <v>118</v>
+      <c r="J104" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="K104" s="3" t="s">
         <v>18</v>
@@ -5282,8 +5285,8 @@
       <c r="I105" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J105" s="7">
-        <v>118</v>
+      <c r="J105" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="K105" s="7" t="s">
         <v>18</v>
@@ -5326,8 +5329,8 @@
       <c r="I106" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J106" s="7">
-        <v>118</v>
+      <c r="J106" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="K106" s="7" t="s">
         <v>18</v>
@@ -5370,8 +5373,8 @@
       <c r="I107" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J107" s="7">
-        <v>118</v>
+      <c r="J107" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="K107" s="7" t="s">
         <v>19</v>
@@ -5414,8 +5417,8 @@
       <c r="I108" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J108" s="7">
-        <v>118</v>
+      <c r="J108" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="K108" s="7" t="s">
         <v>19</v>
@@ -5458,8 +5461,8 @@
       <c r="I109" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J109" s="7">
-        <v>118</v>
+      <c r="J109" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="K109" s="7" t="s">
         <v>20</v>
@@ -5502,8 +5505,8 @@
       <c r="I110" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J110" s="7">
-        <v>118</v>
+      <c r="J110" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="K110" s="7" t="s">
         <v>20</v>
@@ -5546,8 +5549,8 @@
       <c r="I111" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J111" s="7">
-        <v>118</v>
+      <c r="J111" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="K111" s="7" t="s">
         <v>20</v>
@@ -5590,8 +5593,8 @@
       <c r="I112" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J112" s="7">
-        <v>118</v>
+      <c r="J112" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="K112" s="7" t="s">
         <v>21</v>
@@ -5634,8 +5637,8 @@
       <c r="I113" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J113" s="7">
-        <v>118</v>
+      <c r="J113" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="K113" s="7" t="s">
         <v>21</v>
@@ -5678,8 +5681,8 @@
       <c r="I114" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J114" s="7">
-        <v>118</v>
+      <c r="J114" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="K114" s="7" t="s">
         <v>22</v>
@@ -5722,8 +5725,8 @@
       <c r="I115" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J115" s="7">
-        <v>118</v>
+      <c r="J115" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="K115" s="7" t="s">
         <v>22</v>
@@ -5766,8 +5769,8 @@
       <c r="I116" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J116" s="7">
-        <v>118</v>
+      <c r="J116" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="K116" s="7" t="s">
         <v>19</v>
@@ -5810,8 +5813,8 @@
       <c r="I117" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J117" s="7">
-        <v>118</v>
+      <c r="J117" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="K117" s="7" t="s">
         <v>21</v>
@@ -5854,8 +5857,8 @@
       <c r="I118" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J118" s="7">
-        <v>212</v>
+      <c r="J118" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="K118" s="7" t="s">
         <v>19</v>
@@ -5898,8 +5901,8 @@
       <c r="I119" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J119" s="7">
-        <v>212</v>
+      <c r="J119" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="K119" s="7" t="s">
         <v>19</v>
@@ -5942,8 +5945,8 @@
       <c r="I120" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J120" s="11">
-        <v>212</v>
+      <c r="J120" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="K120" s="11" t="s">
         <v>21</v>
@@ -5986,8 +5989,8 @@
       <c r="I121" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J121" s="3">
-        <v>131</v>
+      <c r="J121" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="K121" s="3" t="s">
         <v>18</v>
@@ -6030,8 +6033,8 @@
       <c r="I122" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J122" s="7">
-        <v>131</v>
+      <c r="J122" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="K122" s="7" t="s">
         <v>20</v>
@@ -6074,8 +6077,8 @@
       <c r="I123" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J123" s="7">
-        <v>206</v>
+      <c r="J123" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="K123" s="7" t="s">
         <v>18</v>
@@ -6118,8 +6121,8 @@
       <c r="I124" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J124" s="7">
-        <v>206</v>
+      <c r="J124" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="K124" s="7" t="s">
         <v>20</v>
@@ -6162,8 +6165,8 @@
       <c r="I125" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J125" s="7">
-        <v>206</v>
+      <c r="J125" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="K125" s="7" t="s">
         <v>21</v>
@@ -6206,8 +6209,8 @@
       <c r="I126" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J126" s="7">
-        <v>131</v>
+      <c r="J126" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="K126" s="7" t="s">
         <v>18</v>
@@ -6250,8 +6253,8 @@
       <c r="I127" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J127" s="7">
-        <v>131</v>
+      <c r="J127" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="K127" s="7" t="s">
         <v>18</v>
@@ -6294,8 +6297,8 @@
       <c r="I128" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J128" s="7">
-        <v>131</v>
+      <c r="J128" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="K128" s="7" t="s">
         <v>19</v>
@@ -6338,8 +6341,8 @@
       <c r="I129" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J129" s="7">
-        <v>131</v>
+      <c r="J129" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="K129" s="7" t="s">
         <v>20</v>
@@ -6382,8 +6385,8 @@
       <c r="I130" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J130" s="7">
-        <v>131</v>
+      <c r="J130" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="K130" s="7" t="s">
         <v>21</v>
@@ -6646,8 +6649,8 @@
       <c r="I136" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J136" s="3">
-        <v>131</v>
+      <c r="J136" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="K136" s="3" t="s">
         <v>19</v>
@@ -6690,8 +6693,8 @@
       <c r="I137" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J137" s="7">
-        <v>131</v>
+      <c r="J137" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="K137" s="7" t="s">
         <v>21</v>
@@ -6734,8 +6737,8 @@
       <c r="I138" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J138" s="7">
-        <v>206</v>
+      <c r="J138" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="K138" s="7" t="s">
         <v>19</v>
@@ -6778,8 +6781,8 @@
       <c r="I139" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J139" s="7">
-        <v>206</v>
+      <c r="J139" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="K139" s="7" t="s">
         <v>20</v>
@@ -6822,8 +6825,8 @@
       <c r="I140" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J140" s="7">
-        <v>206</v>
+      <c r="J140" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="K140" s="7" t="s">
         <v>21</v>
@@ -7086,8 +7089,8 @@
       <c r="I146" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J146" s="7">
-        <v>131</v>
+      <c r="J146" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="K146" s="7" t="s">
         <v>19</v>
@@ -7130,8 +7133,8 @@
       <c r="I147" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J147" s="7">
-        <v>131</v>
+      <c r="J147" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="K147" s="7" t="s">
         <v>20</v>
@@ -7174,8 +7177,8 @@
       <c r="I148" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J148" s="7">
-        <v>131</v>
+      <c r="J148" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="K148" s="7" t="s">
         <v>21</v>
@@ -7218,8 +7221,8 @@
       <c r="I149" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J149" s="7">
-        <v>131</v>
+      <c r="J149" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="K149" s="7" t="s">
         <v>22</v>
@@ -7262,8 +7265,8 @@
       <c r="I150" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J150" s="11">
-        <v>131</v>
+      <c r="J150" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="K150" s="11" t="s">
         <v>22</v>
@@ -7287,7 +7290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="N77" sqref="N77"/>
     </sheetView>
   </sheetViews>

--- a/SC Done.xlsx
+++ b/SC Done.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stephen.holwell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\randy.parsons\Desktop\Scheduling Stuff\EXCEL SHEETS FOR ACCESS\Finalized Sch\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1168" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2251" uniqueCount="61">
   <si>
     <t>Term</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>CC963392</t>
-  </si>
-  <si>
-    <t>CC9712552</t>
   </si>
   <si>
     <t>SC978</t>
@@ -693,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="O141" sqref="O141"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,23 +762,23 @@
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
       <c r="G2" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
       <c r="J2" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
       <c r="N2" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>14</v>
@@ -793,7 +790,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F3" s="3">
         <v>1038</v>
@@ -808,7 +805,7 @@
         <v>17</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>18</v>
@@ -825,7 +822,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>14</v>
@@ -837,7 +834,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4" s="7">
         <v>1038</v>
@@ -852,7 +849,7 @@
         <v>17</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>18</v>
@@ -869,7 +866,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>14</v>
@@ -881,7 +878,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" s="7">
         <v>1038</v>
@@ -896,7 +893,7 @@
         <v>17</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>19</v>
@@ -913,7 +910,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>14</v>
@@ -925,7 +922,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" s="7">
         <v>1038</v>
@@ -940,7 +937,7 @@
         <v>17</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>19</v>
@@ -957,7 +954,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>14</v>
@@ -969,7 +966,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7" s="7">
         <v>1038</v>
@@ -984,7 +981,7 @@
         <v>17</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>20</v>
@@ -1001,7 +998,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>14</v>
@@ -1013,7 +1010,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7">
         <v>1038</v>
@@ -1028,7 +1025,7 @@
         <v>17</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>21</v>
@@ -1045,7 +1042,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>14</v>
@@ -1057,7 +1054,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="7">
         <v>1038</v>
@@ -1072,7 +1069,7 @@
         <v>17</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>21</v>
@@ -1089,7 +1086,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>14</v>
@@ -1101,7 +1098,7 @@
         <v>16</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" s="7">
         <v>1038</v>
@@ -1116,7 +1113,7 @@
         <v>17</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>22</v>
@@ -1133,7 +1130,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>14</v>
@@ -1145,7 +1142,7 @@
         <v>16</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" s="7">
         <v>1038</v>
@@ -1160,7 +1157,7 @@
         <v>17</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>22</v>
@@ -1177,7 +1174,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>14</v>
@@ -1204,7 +1201,7 @@
         <v>17</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>18</v>
@@ -1221,7 +1218,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>14</v>
@@ -1248,7 +1245,7 @@
         <v>17</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>20</v>
@@ -1265,7 +1262,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>14</v>
@@ -1292,7 +1289,7 @@
         <v>17</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>18</v>
@@ -1309,7 +1306,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>14</v>
@@ -1336,7 +1333,7 @@
         <v>17</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>21</v>
@@ -1353,7 +1350,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>14</v>
@@ -1365,7 +1362,7 @@
         <v>16</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F16" s="7">
         <v>1038</v>
@@ -1397,7 +1394,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>14</v>
@@ -1409,7 +1406,7 @@
         <v>16</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" s="7">
         <v>1038</v>
@@ -1441,7 +1438,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>14</v>
@@ -1453,7 +1450,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" s="7">
         <v>1038</v>
@@ -1484,8 +1481,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
-        <v>1168</v>
+      <c r="A19" s="6">
+        <v>1178</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>14</v>
@@ -1497,7 +1494,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" s="7">
         <v>1038</v>
@@ -1528,8 +1525,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>1168</v>
+      <c r="A20" s="6">
+        <v>1178</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>14</v>
@@ -1541,16 +1538,16 @@
         <v>16</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F20" s="3">
         <v>1038</v>
       </c>
-      <c r="G20" s="7">
-        <v>1</v>
+      <c r="G20" s="3">
+        <v>2</v>
       </c>
       <c r="H20" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>27</v>
@@ -1571,7 +1568,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>14</v>
@@ -1583,16 +1580,16 @@
         <v>16</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F21" s="7">
         <v>1038</v>
       </c>
       <c r="G21" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>27</v>
@@ -1613,7 +1610,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>14</v>
@@ -1625,16 +1622,16 @@
         <v>16</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F22" s="7">
         <v>1038</v>
       </c>
       <c r="G22" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>27</v>
@@ -1655,7 +1652,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>14</v>
@@ -1667,16 +1664,16 @@
         <v>16</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F23" s="7">
         <v>1038</v>
       </c>
       <c r="G23" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>27</v>
@@ -1697,7 +1694,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>14</v>
@@ -1709,16 +1706,16 @@
         <v>16</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F24" s="7">
         <v>1038</v>
       </c>
       <c r="G24" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>27</v>
@@ -1739,7 +1736,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>14</v>
@@ -1751,22 +1748,22 @@
         <v>16</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F25" s="7">
         <v>1038</v>
       </c>
       <c r="G25" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>18</v>
@@ -1783,7 +1780,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>14</v>
@@ -1795,22 +1792,22 @@
         <v>16</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F26" s="7">
         <v>1038</v>
       </c>
       <c r="G26" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>19</v>
@@ -1827,7 +1824,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>14</v>
@@ -1839,22 +1836,22 @@
         <v>16</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F27" s="7">
         <v>1038</v>
       </c>
       <c r="G27" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>19</v>
@@ -1871,7 +1868,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>14</v>
@@ -1883,22 +1880,22 @@
         <v>16</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F28" s="7">
         <v>1038</v>
       </c>
       <c r="G28" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>20</v>
@@ -1915,7 +1912,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>14</v>
@@ -1927,22 +1924,22 @@
         <v>16</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F29" s="7">
         <v>1038</v>
       </c>
       <c r="G29" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>21</v>
@@ -1959,7 +1956,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>14</v>
@@ -1971,22 +1968,22 @@
         <v>16</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F30" s="7">
         <v>1038</v>
       </c>
       <c r="G30" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>21</v>
@@ -2003,7 +2000,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>14</v>
@@ -2015,22 +2012,22 @@
         <v>16</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F31" s="7">
         <v>1038</v>
       </c>
       <c r="G31" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>22</v>
@@ -2047,7 +2044,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>14</v>
@@ -2059,22 +2056,22 @@
         <v>16</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F32" s="7">
         <v>1038</v>
       </c>
       <c r="G32" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>22</v>
@@ -2091,7 +2088,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>14</v>
@@ -2109,16 +2106,16 @@
         <v>1101</v>
       </c>
       <c r="G33" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>18</v>
@@ -2135,7 +2132,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>14</v>
@@ -2153,16 +2150,16 @@
         <v>2160</v>
       </c>
       <c r="G34" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>18</v>
@@ -2179,7 +2176,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>14</v>
@@ -2197,16 +2194,16 @@
         <v>2160</v>
       </c>
       <c r="G35" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>19</v>
@@ -2222,8 +2219,8 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
-        <v>1168</v>
+      <c r="A36" s="6">
+        <v>1178</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>14</v>
@@ -2241,16 +2238,16 @@
         <v>1060</v>
       </c>
       <c r="G36" s="11">
-        <v>1</v>
-      </c>
-      <c r="H36" s="11">
         <v>2</v>
       </c>
+      <c r="H36" s="7">
+        <v>1</v>
+      </c>
       <c r="I36" s="11" t="s">
         <v>17</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K36" s="11" t="s">
         <v>21</v>
@@ -2266,8 +2263,8 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>1168</v>
+      <c r="A37" s="6">
+        <v>1178</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>14</v>
@@ -2279,22 +2276,22 @@
         <v>16</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F37" s="7">
         <v>1038</v>
       </c>
       <c r="G37" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H37" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>18</v>
@@ -2305,13 +2302,11 @@
       <c r="M37" s="4">
         <v>0.3923611111111111</v>
       </c>
-      <c r="N37" s="5">
-        <v>200998844</v>
-      </c>
+      <c r="N37" s="5"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>14</v>
@@ -2323,22 +2318,22 @@
         <v>16</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F38" s="7">
         <v>1038</v>
       </c>
       <c r="G38" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H38" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>18</v>
@@ -2349,13 +2344,11 @@
       <c r="M38" s="8">
         <v>0.63888888888888895</v>
       </c>
-      <c r="N38" s="9">
-        <v>200998844</v>
-      </c>
+      <c r="N38" s="9"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>14</v>
@@ -2367,22 +2360,22 @@
         <v>16</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F39" s="7">
         <v>1038</v>
       </c>
       <c r="G39" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H39" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>19</v>
@@ -2393,13 +2386,11 @@
       <c r="M39" s="8">
         <v>0.43402777777777773</v>
       </c>
-      <c r="N39" s="9">
-        <v>200998844</v>
-      </c>
+      <c r="N39" s="9"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>14</v>
@@ -2411,22 +2402,22 @@
         <v>16</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F40" s="7">
         <v>1038</v>
       </c>
       <c r="G40" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H40" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>19</v>
@@ -2437,13 +2428,11 @@
       <c r="M40" s="8">
         <v>0.63888888888888895</v>
       </c>
-      <c r="N40" s="9">
-        <v>200998844</v>
-      </c>
+      <c r="N40" s="9"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>14</v>
@@ -2455,22 +2444,22 @@
         <v>16</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F41" s="7">
         <v>1038</v>
       </c>
       <c r="G41" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H41" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I41" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>20</v>
@@ -2481,13 +2470,11 @@
       <c r="M41" s="8">
         <v>0.43402777777777773</v>
       </c>
-      <c r="N41" s="9">
-        <v>200998844</v>
-      </c>
+      <c r="N41" s="9"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>14</v>
@@ -2499,22 +2486,22 @@
         <v>16</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F42" s="7">
         <v>1038</v>
       </c>
       <c r="G42" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H42" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>20</v>
@@ -2525,13 +2512,11 @@
       <c r="M42" s="8">
         <v>0.63888888888888895</v>
       </c>
-      <c r="N42" s="9">
-        <v>200998844</v>
-      </c>
+      <c r="N42" s="9"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>14</v>
@@ -2543,22 +2528,22 @@
         <v>16</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F43" s="7">
         <v>1038</v>
       </c>
       <c r="G43" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H43" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>21</v>
@@ -2569,13 +2554,11 @@
       <c r="M43" s="8">
         <v>0.43402777777777773</v>
       </c>
-      <c r="N43" s="9">
-        <v>200998844</v>
-      </c>
+      <c r="N43" s="9"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>14</v>
@@ -2587,22 +2570,22 @@
         <v>16</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F44" s="7">
         <v>1038</v>
       </c>
       <c r="G44" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H44" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I44" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>21</v>
@@ -2613,13 +2596,11 @@
       <c r="M44" s="8">
         <v>0.63888888888888895</v>
       </c>
-      <c r="N44" s="9">
-        <v>200998844</v>
-      </c>
+      <c r="N44" s="9"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>14</v>
@@ -2631,22 +2612,22 @@
         <v>16</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F45" s="7">
         <v>1038</v>
       </c>
       <c r="G45" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H45" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>22</v>
@@ -2657,13 +2638,11 @@
       <c r="M45" s="8">
         <v>0.43402777777777773</v>
       </c>
-      <c r="N45" s="9">
-        <v>200998844</v>
-      </c>
+      <c r="N45" s="9"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>14</v>
@@ -2681,16 +2660,16 @@
         <v>1100</v>
       </c>
       <c r="G46" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H46" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I46" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>18</v>
@@ -2707,7 +2686,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>14</v>
@@ -2725,16 +2704,16 @@
         <v>1100</v>
       </c>
       <c r="G47" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H47" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I47" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>20</v>
@@ -2751,7 +2730,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>14</v>
@@ -2769,16 +2748,16 @@
         <v>2160</v>
       </c>
       <c r="G48" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H48" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I48" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>18</v>
@@ -2795,7 +2774,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>14</v>
@@ -2813,16 +2792,16 @@
         <v>2160</v>
       </c>
       <c r="G49" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H49" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I49" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>19</v>
@@ -2838,8 +2817,8 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="10">
-        <v>1168</v>
+      <c r="A50" s="6">
+        <v>1178</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>14</v>
@@ -2857,16 +2836,16 @@
         <v>2160</v>
       </c>
       <c r="G50" s="11">
-        <v>1</v>
-      </c>
-      <c r="H50" s="11">
         <v>3</v>
       </c>
+      <c r="H50" s="7">
+        <v>1</v>
+      </c>
       <c r="I50" s="11" t="s">
         <v>17</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K50" s="11" t="s">
         <v>21</v>
@@ -2882,8 +2861,8 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>1168</v>
+      <c r="A51" s="6">
+        <v>1178</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>14</v>
@@ -2895,16 +2874,16 @@
         <v>16</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F51" s="7">
         <v>1038</v>
       </c>
       <c r="G51" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H51" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I51" s="3" t="s">
         <v>27</v>
@@ -2927,7 +2906,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>14</v>
@@ -2939,16 +2918,16 @@
         <v>16</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F52" s="7">
         <v>1038</v>
       </c>
       <c r="G52" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H52" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I52" s="7" t="s">
         <v>27</v>
@@ -2971,7 +2950,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>14</v>
@@ -2983,16 +2962,16 @@
         <v>16</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F53" s="7">
         <v>1038</v>
       </c>
       <c r="G53" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H53" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I53" s="7" t="s">
         <v>27</v>
@@ -3015,7 +2994,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>14</v>
@@ -3027,16 +3006,16 @@
         <v>16</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F54" s="7">
         <v>1038</v>
       </c>
       <c r="G54" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H54" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I54" s="7" t="s">
         <v>27</v>
@@ -3059,7 +3038,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>14</v>
@@ -3071,16 +3050,16 @@
         <v>16</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F55" s="7">
         <v>1038</v>
       </c>
       <c r="G55" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H55" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I55" s="7" t="s">
         <v>27</v>
@@ -3103,7 +3082,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>14</v>
@@ -3115,22 +3094,22 @@
         <v>16</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F56" s="7">
         <v>1038</v>
       </c>
       <c r="G56" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H56" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I56" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>18</v>
@@ -3147,7 +3126,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>14</v>
@@ -3159,22 +3138,22 @@
         <v>16</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F57" s="7">
         <v>1038</v>
       </c>
       <c r="G57" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H57" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I57" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>18</v>
@@ -3191,7 +3170,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>14</v>
@@ -3203,22 +3182,22 @@
         <v>16</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F58" s="7">
         <v>1038</v>
       </c>
       <c r="G58" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H58" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I58" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>19</v>
@@ -3235,7 +3214,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>14</v>
@@ -3247,22 +3226,22 @@
         <v>16</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F59" s="7">
         <v>1038</v>
       </c>
       <c r="G59" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H59" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I59" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>20</v>
@@ -3279,7 +3258,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>14</v>
@@ -3291,22 +3270,22 @@
         <v>16</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F60" s="7">
         <v>1038</v>
       </c>
       <c r="G60" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H60" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I60" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>20</v>
@@ -3323,7 +3302,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>14</v>
@@ -3335,22 +3314,22 @@
         <v>16</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F61" s="7">
         <v>1038</v>
       </c>
       <c r="G61" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H61" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I61" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>21</v>
@@ -3367,7 +3346,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>14</v>
@@ -3379,22 +3358,22 @@
         <v>16</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F62" s="7">
         <v>1038</v>
       </c>
       <c r="G62" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H62" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I62" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K62" s="7" t="s">
         <v>21</v>
@@ -3411,7 +3390,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>14</v>
@@ -3423,22 +3402,22 @@
         <v>16</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F63" s="7">
         <v>1038</v>
       </c>
       <c r="G63" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H63" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I63" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>22</v>
@@ -3455,7 +3434,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>14</v>
@@ -3473,16 +3452,16 @@
         <v>1100</v>
       </c>
       <c r="G64" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H64" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I64" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K64" s="7" t="s">
         <v>18</v>
@@ -3499,7 +3478,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>14</v>
@@ -3517,16 +3496,16 @@
         <v>1100</v>
       </c>
       <c r="G65" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H65" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I65" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>19</v>
@@ -3543,7 +3522,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>14</v>
@@ -3561,16 +3540,16 @@
         <v>2160</v>
       </c>
       <c r="G66" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H66" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I66" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K66" s="7" t="s">
         <v>19</v>
@@ -3586,8 +3565,8 @@
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="10">
-        <v>1168</v>
+      <c r="A67" s="6">
+        <v>1178</v>
       </c>
       <c r="B67" s="11" t="s">
         <v>14</v>
@@ -3605,16 +3584,16 @@
         <v>2160</v>
       </c>
       <c r="G67" s="11">
-        <v>1</v>
-      </c>
-      <c r="H67" s="11">
         <v>4</v>
       </c>
+      <c r="H67" s="7">
+        <v>1</v>
+      </c>
       <c r="I67" s="11" t="s">
         <v>17</v>
       </c>
       <c r="J67" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K67" s="11" t="s">
         <v>20</v>
@@ -3630,8 +3609,8 @@
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <v>1168</v>
+      <c r="A68" s="6">
+        <v>1178</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>14</v>
@@ -3643,22 +3622,22 @@
         <v>16</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F68" s="7">
         <v>1038</v>
       </c>
       <c r="G68" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H68" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I68" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>18</v>
@@ -3669,13 +3648,11 @@
       <c r="M68" s="4">
         <v>0.43402777777777773</v>
       </c>
-      <c r="N68" s="14" t="s">
-        <v>32</v>
-      </c>
+      <c r="N68" s="14"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>14</v>
@@ -3687,22 +3664,22 @@
         <v>16</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F69" s="7">
         <v>1038</v>
       </c>
       <c r="G69" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H69" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I69" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>19</v>
@@ -3713,13 +3690,11 @@
       <c r="M69" s="8">
         <v>0.68055555555555547</v>
       </c>
-      <c r="N69" s="15" t="s">
-        <v>32</v>
-      </c>
+      <c r="N69" s="15"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>14</v>
@@ -3731,22 +3706,22 @@
         <v>16</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F70" s="7">
         <v>1038</v>
       </c>
       <c r="G70" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H70" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I70" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K70" s="7" t="s">
         <v>20</v>
@@ -3757,13 +3732,11 @@
       <c r="M70" s="8">
         <v>0.43402777777777773</v>
       </c>
-      <c r="N70" s="15" t="s">
-        <v>32</v>
-      </c>
+      <c r="N70" s="15"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>14</v>
@@ -3775,22 +3748,22 @@
         <v>16</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F71" s="7">
         <v>1038</v>
       </c>
       <c r="G71" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H71" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I71" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K71" s="7" t="s">
         <v>20</v>
@@ -3801,13 +3774,11 @@
       <c r="M71" s="8">
         <v>0.68055555555555547</v>
       </c>
-      <c r="N71" s="15" t="s">
-        <v>32</v>
-      </c>
+      <c r="N71" s="15"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>14</v>
@@ -3819,22 +3790,22 @@
         <v>16</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F72" s="7">
         <v>1038</v>
       </c>
       <c r="G72" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H72" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I72" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K72" s="7" t="s">
         <v>21</v>
@@ -3845,13 +3816,11 @@
       <c r="M72" s="8">
         <v>0.3923611111111111</v>
       </c>
-      <c r="N72" s="15" t="s">
-        <v>32</v>
-      </c>
+      <c r="N72" s="15"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>14</v>
@@ -3863,22 +3832,22 @@
         <v>16</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F73" s="7">
         <v>1038</v>
       </c>
       <c r="G73" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H73" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I73" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K73" s="7" t="s">
         <v>21</v>
@@ -3889,13 +3858,11 @@
       <c r="M73" s="8">
         <v>0.68055555555555547</v>
       </c>
-      <c r="N73" s="15" t="s">
-        <v>32</v>
-      </c>
+      <c r="N73" s="15"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>14</v>
@@ -3907,16 +3874,16 @@
         <v>16</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F74" s="7">
         <v>1038</v>
       </c>
       <c r="G74" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H74" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I74" s="7" t="s">
         <v>27</v>
@@ -3933,13 +3900,11 @@
       <c r="M74" s="8">
         <v>0.52777777777777779</v>
       </c>
-      <c r="N74" s="15" t="s">
-        <v>32</v>
-      </c>
+      <c r="N74" s="15"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>14</v>
@@ -3951,16 +3916,16 @@
         <v>16</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F75" s="7">
         <v>1038</v>
       </c>
       <c r="G75" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H75" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I75" s="7" t="s">
         <v>27</v>
@@ -3977,13 +3942,11 @@
       <c r="M75" s="8">
         <v>0.68055555555555547</v>
       </c>
-      <c r="N75" s="15" t="s">
-        <v>32</v>
-      </c>
+      <c r="N75" s="15"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>14</v>
@@ -3995,16 +3958,16 @@
         <v>16</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F76" s="7">
         <v>1038</v>
       </c>
       <c r="G76" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H76" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I76" s="7" t="s">
         <v>27</v>
@@ -4021,13 +3984,11 @@
       <c r="M76" s="8">
         <v>0.52777777777777779</v>
       </c>
-      <c r="N76" s="15" t="s">
-        <v>32</v>
-      </c>
+      <c r="N76" s="15"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>14</v>
@@ -4039,16 +4000,16 @@
         <v>16</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F77" s="7">
         <v>1038</v>
       </c>
       <c r="G77" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H77" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I77" s="7" t="s">
         <v>27</v>
@@ -4065,13 +4026,11 @@
       <c r="M77" s="8">
         <v>0.52777777777777779</v>
       </c>
-      <c r="N77" s="15" t="s">
-        <v>32</v>
-      </c>
+      <c r="N77" s="15"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>14</v>
@@ -4083,16 +4042,16 @@
         <v>16</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F78" s="7">
         <v>1038</v>
       </c>
       <c r="G78" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H78" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I78" s="7" t="s">
         <v>27</v>
@@ -4109,13 +4068,11 @@
       <c r="M78" s="8">
         <v>0.52777777777777779</v>
       </c>
-      <c r="N78" s="15" t="s">
-        <v>32</v>
-      </c>
+      <c r="N78" s="15"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>14</v>
@@ -4133,16 +4090,16 @@
         <v>1100</v>
       </c>
       <c r="G79" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H79" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I79" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K79" s="7" t="s">
         <v>18</v>
@@ -4159,7 +4116,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>14</v>
@@ -4177,16 +4134,16 @@
         <v>1100</v>
       </c>
       <c r="G80" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H80" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I80" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K80" s="7" t="s">
         <v>20</v>
@@ -4203,7 +4160,7 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>14</v>
@@ -4221,16 +4178,16 @@
         <v>2160</v>
       </c>
       <c r="G81" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H81" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I81" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K81" s="7" t="s">
         <v>19</v>
@@ -4246,8 +4203,8 @@
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="10">
-        <v>1168</v>
+      <c r="A82" s="6">
+        <v>1178</v>
       </c>
       <c r="B82" s="11" t="s">
         <v>14</v>
@@ -4265,16 +4222,16 @@
         <v>2160</v>
       </c>
       <c r="G82" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H82" s="11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I82" s="11" t="s">
         <v>17</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K82" s="11" t="s">
         <v>21</v>
@@ -4290,20 +4247,20 @@
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
-        <v>1168</v>
+      <c r="A83" s="6">
+        <v>1178</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C83" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="E83" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F83" s="7">
         <v>1075</v>
@@ -4311,14 +4268,14 @@
       <c r="G83" s="3">
         <v>1</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H83" s="7">
         <v>1</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>18</v>
@@ -4335,19 +4292,19 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C84" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D84" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D84" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="E84" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F84" s="7">
         <v>1075</v>
@@ -4362,7 +4319,7 @@
         <v>17</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K84" s="7" t="s">
         <v>18</v>
@@ -4379,19 +4336,19 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C85" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D85" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D85" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="E85" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F85" s="7">
         <v>1075</v>
@@ -4406,7 +4363,7 @@
         <v>17</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K85" s="7" t="s">
         <v>19</v>
@@ -4423,19 +4380,19 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C86" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D86" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D86" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="E86" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F86" s="7">
         <v>1075</v>
@@ -4450,7 +4407,7 @@
         <v>17</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K86" s="7" t="s">
         <v>19</v>
@@ -4467,19 +4424,19 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C87" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D87" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D87" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="E87" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F87" s="7">
         <v>1075</v>
@@ -4494,7 +4451,7 @@
         <v>17</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K87" s="7" t="s">
         <v>20</v>
@@ -4511,19 +4468,19 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C88" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D88" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="E88" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F88" s="7">
         <v>1075</v>
@@ -4538,7 +4495,7 @@
         <v>17</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K88" s="7" t="s">
         <v>20</v>
@@ -4555,19 +4512,19 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C89" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D89" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D89" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="E89" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F89" s="7">
         <v>1075</v>
@@ -4582,7 +4539,7 @@
         <v>17</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K89" s="7" t="s">
         <v>21</v>
@@ -4599,19 +4556,19 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C90" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D90" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D90" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="E90" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F90" s="7">
         <v>1075</v>
@@ -4626,7 +4583,7 @@
         <v>17</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K90" s="7" t="s">
         <v>21</v>
@@ -4643,19 +4600,19 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C91" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D91" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D91" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="E91" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F91" s="7">
         <v>1075</v>
@@ -4670,7 +4627,7 @@
         <v>17</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K91" s="7" t="s">
         <v>22</v>
@@ -4687,19 +4644,19 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C92" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D92" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D92" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="E92" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F92" s="7">
         <v>1075</v>
@@ -4714,7 +4671,7 @@
         <v>17</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K92" s="7" t="s">
         <v>22</v>
@@ -4731,19 +4688,19 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C93" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D93" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D93" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="E93" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F93" s="7">
         <v>1075</v>
@@ -4758,7 +4715,7 @@
         <v>27</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K93" s="7" t="s">
         <v>18</v>
@@ -4775,19 +4732,19 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C94" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D94" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D94" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="E94" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F94" s="7">
         <v>1075</v>
@@ -4802,7 +4759,7 @@
         <v>27</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K94" s="7" t="s">
         <v>19</v>
@@ -4819,19 +4776,19 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C95" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D95" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D95" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="E95" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F95" s="7">
         <v>1075</v>
@@ -4846,7 +4803,7 @@
         <v>27</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K95" s="7" t="s">
         <v>20</v>
@@ -4863,19 +4820,19 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C96" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D96" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D96" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="E96" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F96" s="7">
         <v>1075</v>
@@ -4890,7 +4847,7 @@
         <v>27</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K96" s="7" t="s">
         <v>20</v>
@@ -4907,19 +4864,19 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C97" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D97" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D97" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="E97" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F97" s="7">
         <v>1075</v>
@@ -4934,7 +4891,7 @@
         <v>27</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K97" s="7" t="s">
         <v>21</v>
@@ -4951,19 +4908,19 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C98" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D98" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D98" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="E98" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F98" s="7">
         <v>1075</v>
@@ -4978,7 +4935,7 @@
         <v>27</v>
       </c>
       <c r="J98" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K98" s="7" t="s">
         <v>21</v>
@@ -4995,16 +4952,16 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C99" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D99" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>30</v>
@@ -5022,7 +4979,7 @@
         <v>17</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K99" s="7" t="s">
         <v>18</v>
@@ -5039,16 +4996,16 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C100" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D100" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>30</v>
@@ -5066,7 +5023,7 @@
         <v>17</v>
       </c>
       <c r="J100" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K100" s="7" t="s">
         <v>20</v>
@@ -5083,16 +5040,16 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C101" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D101" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>30</v>
@@ -5110,7 +5067,7 @@
         <v>17</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K101" s="7" t="s">
         <v>21</v>
@@ -5127,19 +5084,19 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C102" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D102" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="E102" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="F102" s="7">
         <v>1760</v>
@@ -5154,7 +5111,7 @@
         <v>17</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K102" s="7" t="s">
         <v>18</v>
@@ -5170,20 +5127,20 @@
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" s="10">
-        <v>1168</v>
+      <c r="A103" s="6">
+        <v>1178</v>
       </c>
       <c r="B103" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C103" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D103" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D103" s="11" t="s">
+      <c r="E103" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="E103" s="11" t="s">
-        <v>35</v>
       </c>
       <c r="F103" s="11">
         <v>1760</v>
@@ -5198,7 +5155,7 @@
         <v>17</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K103" s="11" t="s">
         <v>19</v>
@@ -5214,20 +5171,20 @@
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
-        <v>1168</v>
+      <c r="A104" s="6">
+        <v>1178</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C104" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D104" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D104" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="E104" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F104" s="3">
         <v>1003</v>
@@ -5242,7 +5199,7 @@
         <v>17</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K104" s="3" t="s">
         <v>18</v>
@@ -5254,24 +5211,24 @@
         <v>0.43402777777777773</v>
       </c>
       <c r="N104" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C105" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D105" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D105" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="E105" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F105" s="7">
         <v>1003</v>
@@ -5286,7 +5243,7 @@
         <v>17</v>
       </c>
       <c r="J105" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K105" s="7" t="s">
         <v>18</v>
@@ -5298,24 +5255,24 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="N105" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C106" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D106" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D106" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="E106" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F106" s="7">
         <v>1003</v>
@@ -5330,7 +5287,7 @@
         <v>17</v>
       </c>
       <c r="J106" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K106" s="7" t="s">
         <v>18</v>
@@ -5342,24 +5299,24 @@
         <v>0.63888888888888895</v>
       </c>
       <c r="N106" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C107" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D107" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D107" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="E107" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F107" s="7">
         <v>1003</v>
@@ -5374,7 +5331,7 @@
         <v>17</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K107" s="7" t="s">
         <v>19</v>
@@ -5386,24 +5343,24 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="N107" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C108" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D108" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D108" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="E108" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F108" s="7">
         <v>1003</v>
@@ -5418,7 +5375,7 @@
         <v>17</v>
       </c>
       <c r="J108" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K108" s="7" t="s">
         <v>19</v>
@@ -5430,24 +5387,24 @@
         <v>0.68055555555555547</v>
       </c>
       <c r="N108" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C109" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D109" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D109" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="E109" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F109" s="7">
         <v>1003</v>
@@ -5462,7 +5419,7 @@
         <v>17</v>
       </c>
       <c r="J109" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K109" s="7" t="s">
         <v>20</v>
@@ -5474,24 +5431,24 @@
         <v>0.43402777777777773</v>
       </c>
       <c r="N109" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C110" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D110" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D110" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="E110" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F110" s="7">
         <v>1003</v>
@@ -5506,7 +5463,7 @@
         <v>17</v>
       </c>
       <c r="J110" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K110" s="7" t="s">
         <v>20</v>
@@ -5518,24 +5475,24 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="N110" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C111" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D111" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D111" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="E111" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F111" s="7">
         <v>1003</v>
@@ -5550,7 +5507,7 @@
         <v>17</v>
       </c>
       <c r="J111" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K111" s="7" t="s">
         <v>20</v>
@@ -5562,24 +5519,24 @@
         <v>0.68055555555555547</v>
       </c>
       <c r="N111" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C112" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D112" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D112" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="E112" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F112" s="7">
         <v>1003</v>
@@ -5594,7 +5551,7 @@
         <v>17</v>
       </c>
       <c r="J112" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K112" s="7" t="s">
         <v>21</v>
@@ -5606,24 +5563,24 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="N112" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C113" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D113" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D113" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="E113" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F113" s="7">
         <v>1003</v>
@@ -5638,7 +5595,7 @@
         <v>17</v>
       </c>
       <c r="J113" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K113" s="7" t="s">
         <v>21</v>
@@ -5650,24 +5607,24 @@
         <v>0.63888888888888895</v>
       </c>
       <c r="N113" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C114" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D114" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D114" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="E114" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F114" s="7">
         <v>1003</v>
@@ -5682,7 +5639,7 @@
         <v>17</v>
       </c>
       <c r="J114" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K114" s="7" t="s">
         <v>22</v>
@@ -5694,24 +5651,24 @@
         <v>0.43402777777777773</v>
       </c>
       <c r="N114" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C115" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D115" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D115" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="E115" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F115" s="7">
         <v>1003</v>
@@ -5726,7 +5683,7 @@
         <v>17</v>
       </c>
       <c r="J115" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K115" s="7" t="s">
         <v>22</v>
@@ -5738,21 +5695,21 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="N115" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C116" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D116" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="E116" s="7" t="s">
         <v>30</v>
@@ -5770,7 +5727,7 @@
         <v>17</v>
       </c>
       <c r="J116" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K116" s="7" t="s">
         <v>19</v>
@@ -5787,16 +5744,16 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C117" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D117" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="E117" s="7" t="s">
         <v>30</v>
@@ -5814,7 +5771,7 @@
         <v>17</v>
       </c>
       <c r="J117" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K117" s="7" t="s">
         <v>21</v>
@@ -5831,19 +5788,19 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C118" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D118" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D118" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="E118" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F118" s="7">
         <v>1760</v>
@@ -5858,7 +5815,7 @@
         <v>17</v>
       </c>
       <c r="J118" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K118" s="7" t="s">
         <v>19</v>
@@ -5869,25 +5826,23 @@
       <c r="M118" s="8">
         <v>0.43402777777777773</v>
       </c>
-      <c r="N118" s="9">
-        <v>19500947</v>
-      </c>
+      <c r="N118" s="9"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C119" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D119" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D119" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="E119" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F119" s="7">
         <v>1760</v>
@@ -5902,7 +5857,7 @@
         <v>17</v>
       </c>
       <c r="J119" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K119" s="7" t="s">
         <v>19</v>
@@ -5913,25 +5868,23 @@
       <c r="M119" s="8">
         <v>0.4861111111111111</v>
       </c>
-      <c r="N119" s="9">
-        <v>19500947</v>
-      </c>
+      <c r="N119" s="9"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A120" s="10">
-        <v>1168</v>
+      <c r="A120" s="6">
+        <v>1178</v>
       </c>
       <c r="B120" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C120" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D120" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D120" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="E120" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F120" s="11">
         <v>1760</v>
@@ -5946,7 +5899,7 @@
         <v>17</v>
       </c>
       <c r="J120" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K120" s="11" t="s">
         <v>21</v>
@@ -5957,22 +5910,20 @@
       <c r="M120" s="12">
         <v>0.43402777777777773</v>
       </c>
-      <c r="N120" s="13">
-        <v>19500947</v>
-      </c>
+      <c r="N120" s="13"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A121" s="2">
-        <v>1168</v>
+      <c r="A121" s="6">
+        <v>1178</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C121" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D121" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>30</v>
@@ -5990,7 +5941,7 @@
         <v>17</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K121" s="3" t="s">
         <v>18</v>
@@ -6001,22 +5952,20 @@
       <c r="M121" s="4">
         <v>0.3923611111111111</v>
       </c>
-      <c r="N121" s="5">
-        <v>19500947</v>
-      </c>
+      <c r="N121" s="5"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C122" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D122" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="E122" s="7" t="s">
         <v>30</v>
@@ -6034,7 +5983,7 @@
         <v>17</v>
       </c>
       <c r="J122" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K122" s="7" t="s">
         <v>20</v>
@@ -6045,25 +5994,23 @@
       <c r="M122" s="8">
         <v>0.3923611111111111</v>
       </c>
-      <c r="N122" s="9">
-        <v>19500947</v>
-      </c>
+      <c r="N122" s="9"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C123" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D123" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D123" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="E123" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F123" s="7">
         <v>1760</v>
@@ -6078,7 +6025,7 @@
         <v>17</v>
       </c>
       <c r="J123" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K123" s="7" t="s">
         <v>18</v>
@@ -6089,25 +6036,23 @@
       <c r="M123" s="8">
         <v>0.43402777777777773</v>
       </c>
-      <c r="N123" s="9">
-        <v>19500947</v>
-      </c>
+      <c r="N123" s="9"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C124" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D124" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D124" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="E124" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F124" s="7">
         <v>1760</v>
@@ -6122,7 +6067,7 @@
         <v>17</v>
       </c>
       <c r="J124" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K124" s="7" t="s">
         <v>20</v>
@@ -6133,25 +6078,23 @@
       <c r="M124" s="8">
         <v>0.43402777777777773</v>
       </c>
-      <c r="N124" s="9">
-        <v>19500947</v>
-      </c>
+      <c r="N124" s="9"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C125" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D125" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D125" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="E125" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F125" s="7">
         <v>1760</v>
@@ -6166,7 +6109,7 @@
         <v>17</v>
       </c>
       <c r="J125" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K125" s="7" t="s">
         <v>21</v>
@@ -6177,25 +6120,23 @@
       <c r="M125" s="8">
         <v>0.4861111111111111</v>
       </c>
-      <c r="N125" s="9">
-        <v>19500947</v>
-      </c>
+      <c r="N125" s="9"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C126" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D126" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D126" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="E126" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F126" s="7">
         <v>1083</v>
@@ -6210,7 +6151,7 @@
         <v>17</v>
       </c>
       <c r="J126" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K126" s="7" t="s">
         <v>18</v>
@@ -6227,19 +6168,19 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C127" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D127" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D127" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="E127" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F127" s="7">
         <v>1083</v>
@@ -6254,7 +6195,7 @@
         <v>17</v>
       </c>
       <c r="J127" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K127" s="7" t="s">
         <v>18</v>
@@ -6271,19 +6212,19 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C128" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D128" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D128" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="E128" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F128" s="7">
         <v>1083</v>
@@ -6298,7 +6239,7 @@
         <v>17</v>
       </c>
       <c r="J128" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K128" s="7" t="s">
         <v>19</v>
@@ -6315,19 +6256,19 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B129" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C129" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D129" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D129" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="E129" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F129" s="7">
         <v>1083</v>
@@ -6342,7 +6283,7 @@
         <v>17</v>
       </c>
       <c r="J129" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K129" s="7" t="s">
         <v>20</v>
@@ -6359,19 +6300,19 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B130" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C130" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D130" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D130" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="E130" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F130" s="7">
         <v>1083</v>
@@ -6386,7 +6327,7 @@
         <v>17</v>
       </c>
       <c r="J130" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K130" s="7" t="s">
         <v>21</v>
@@ -6403,19 +6344,19 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C131" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D131" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D131" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="E131" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F131" s="7">
         <v>1083</v>
@@ -6447,19 +6388,19 @@
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C132" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D132" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D132" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="E132" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F132" s="7">
         <v>1083</v>
@@ -6491,19 +6432,19 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B133" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C133" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D133" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D133" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="E133" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F133" s="7">
         <v>1083</v>
@@ -6535,19 +6476,19 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C134" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D134" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D134" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="E134" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F134" s="7">
         <v>1083</v>
@@ -6578,20 +6519,20 @@
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A135" s="10">
-        <v>1168</v>
+      <c r="A135" s="6">
+        <v>1178</v>
       </c>
       <c r="B135" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C135" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D135" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D135" s="11" t="s">
-        <v>40</v>
-      </c>
       <c r="E135" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F135" s="7">
         <v>1083</v>
@@ -6622,17 +6563,17 @@
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A136" s="2">
-        <v>1168</v>
+      <c r="A136" s="6">
+        <v>1178</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C136" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D136" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="D136" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>30</v>
@@ -6650,7 +6591,7 @@
         <v>17</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K136" s="3" t="s">
         <v>19</v>
@@ -6661,22 +6602,20 @@
       <c r="M136" s="4">
         <v>0.3923611111111111</v>
       </c>
-      <c r="N136" s="5">
-        <v>19500947</v>
-      </c>
+      <c r="N136" s="5"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B137" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C137" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D137" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="E137" s="7" t="s">
         <v>30</v>
@@ -6694,7 +6633,7 @@
         <v>17</v>
       </c>
       <c r="J137" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K137" s="7" t="s">
         <v>21</v>
@@ -6705,25 +6644,23 @@
       <c r="M137" s="8">
         <v>0.3923611111111111</v>
       </c>
-      <c r="N137" s="9">
-        <v>19500947</v>
-      </c>
+      <c r="N137" s="9"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B138" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C138" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D138" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D138" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="E138" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F138" s="7">
         <v>1760</v>
@@ -6738,7 +6675,7 @@
         <v>17</v>
       </c>
       <c r="J138" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K138" s="7" t="s">
         <v>19</v>
@@ -6749,25 +6686,23 @@
       <c r="M138" s="8">
         <v>0.43402777777777773</v>
       </c>
-      <c r="N138" s="9">
-        <v>19500947</v>
-      </c>
+      <c r="N138" s="9"/>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B139" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C139" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D139" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D139" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="E139" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F139" s="7">
         <v>1760</v>
@@ -6782,7 +6717,7 @@
         <v>17</v>
       </c>
       <c r="J139" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K139" s="7" t="s">
         <v>20</v>
@@ -6793,25 +6728,23 @@
       <c r="M139" s="8">
         <v>0.4861111111111111</v>
       </c>
-      <c r="N139" s="9">
-        <v>19500947</v>
-      </c>
+      <c r="N139" s="9"/>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B140" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C140" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D140" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D140" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="E140" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F140" s="7">
         <v>1760</v>
@@ -6826,7 +6759,7 @@
         <v>17</v>
       </c>
       <c r="J140" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K140" s="7" t="s">
         <v>21</v>
@@ -6837,25 +6770,23 @@
       <c r="M140" s="8">
         <v>0.43402777777777773</v>
       </c>
-      <c r="N140" s="9">
-        <v>19500947</v>
-      </c>
+      <c r="N140" s="9"/>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B141" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C141" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D141" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D141" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="E141" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F141" s="7">
         <v>1090</v>
@@ -6887,19 +6818,19 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B142" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C142" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D142" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D142" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="E142" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F142" s="7">
         <v>1090</v>
@@ -6931,19 +6862,19 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B143" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C143" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D143" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D143" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="E143" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F143" s="7">
         <v>1090</v>
@@ -6975,19 +6906,19 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B144" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C144" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D144" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D144" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="E144" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F144" s="7">
         <v>1090</v>
@@ -7019,19 +6950,19 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C145" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D145" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D145" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="E145" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F145" s="7">
         <v>1090</v>
@@ -7063,19 +6994,19 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B146" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C146" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D146" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D146" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="E146" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F146" s="7">
         <v>1090</v>
@@ -7090,7 +7021,7 @@
         <v>17</v>
       </c>
       <c r="J146" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K146" s="7" t="s">
         <v>19</v>
@@ -7107,19 +7038,19 @@
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B147" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C147" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D147" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D147" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="E147" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F147" s="7">
         <v>1090</v>
@@ -7134,7 +7065,7 @@
         <v>17</v>
       </c>
       <c r="J147" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K147" s="7" t="s">
         <v>20</v>
@@ -7151,19 +7082,19 @@
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B148" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C148" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D148" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D148" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="E148" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F148" s="7">
         <v>1090</v>
@@ -7178,7 +7109,7 @@
         <v>17</v>
       </c>
       <c r="J148" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K148" s="7" t="s">
         <v>21</v>
@@ -7195,19 +7126,19 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B149" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C149" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D149" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D149" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="E149" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F149" s="7">
         <v>1090</v>
@@ -7222,7 +7153,7 @@
         <v>17</v>
       </c>
       <c r="J149" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K149" s="7" t="s">
         <v>22</v>
@@ -7238,20 +7169,20 @@
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A150" s="10">
-        <v>1168</v>
+      <c r="A150" s="6">
+        <v>1178</v>
       </c>
       <c r="B150" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C150" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D150" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D150" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="E150" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F150" s="11">
         <v>1090</v>
@@ -7266,7 +7197,7 @@
         <v>17</v>
       </c>
       <c r="J150" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K150" s="11" t="s">
         <v>22</v>
@@ -7290,8 +7221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N158"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="N77" sqref="N77"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="P154" sqref="P154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7342,7 +7273,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -7350,18 +7281,18 @@
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
       <c r="G2" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
       <c r="J2" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
       <c r="N2" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -7372,13 +7303,13 @@
         <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" s="3">
         <v>1580</v>
@@ -7393,7 +7324,7 @@
         <v>17</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>18</v>
@@ -7416,13 +7347,13 @@
         <v>14</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" s="7">
         <v>1580</v>
@@ -7437,7 +7368,7 @@
         <v>17</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>21</v>
@@ -7460,10 +7391,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>23</v>
@@ -7481,7 +7412,7 @@
         <v>27</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>18</v>
@@ -7504,10 +7435,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>23</v>
@@ -7525,7 +7456,7 @@
         <v>27</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>20</v>
@@ -7548,10 +7479,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
@@ -7569,7 +7500,7 @@
         <v>27</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>21</v>
@@ -7592,13 +7523,13 @@
         <v>14</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="F8" s="7">
         <v>1041</v>
@@ -7613,7 +7544,7 @@
         <v>17</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>18</v>
@@ -7634,13 +7565,13 @@
         <v>14</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="F9" s="7">
         <v>1041</v>
@@ -7655,7 +7586,7 @@
         <v>17</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>19</v>
@@ -7676,13 +7607,13 @@
         <v>14</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="F10" s="7">
         <v>1041</v>
@@ -7697,7 +7628,7 @@
         <v>17</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>20</v>
@@ -7718,13 +7649,13 @@
         <v>14</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" s="7">
         <v>1031</v>
@@ -7739,7 +7670,7 @@
         <v>17</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>19</v>
@@ -7762,13 +7693,13 @@
         <v>14</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" s="7">
         <v>1031</v>
@@ -7783,7 +7714,7 @@
         <v>17</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>20</v>
@@ -7806,13 +7737,13 @@
         <v>14</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" s="7">
         <v>1021</v>
@@ -7827,7 +7758,7 @@
         <v>17</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>19</v>
@@ -7850,13 +7781,13 @@
         <v>14</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" s="7">
         <v>1021</v>
@@ -7871,7 +7802,7 @@
         <v>27</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>22</v>
@@ -7894,10 +7825,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>14</v>
@@ -7915,7 +7846,7 @@
         <v>17</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>22</v>
@@ -7936,10 +7867,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>14</v>
@@ -7957,7 +7888,7 @@
         <v>17</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K16" s="11" t="s">
         <v>22</v>
@@ -7984,7 +7915,7 @@
         <v>16</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" s="3">
         <v>1038</v>
@@ -7999,7 +7930,7 @@
         <v>17</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>18</v>
@@ -8028,7 +7959,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" s="7">
         <v>1038</v>
@@ -8043,7 +7974,7 @@
         <v>17</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>18</v>
@@ -8072,7 +8003,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" s="7">
         <v>1038</v>
@@ -8087,7 +8018,7 @@
         <v>17</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>19</v>
@@ -8116,7 +8047,7 @@
         <v>16</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F20" s="7">
         <v>1038</v>
@@ -8131,7 +8062,7 @@
         <v>17</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>19</v>
@@ -8160,7 +8091,7 @@
         <v>16</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F21" s="7">
         <v>1038</v>
@@ -8175,7 +8106,7 @@
         <v>17</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>20</v>
@@ -8204,7 +8135,7 @@
         <v>16</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F22" s="7">
         <v>1038</v>
@@ -8219,7 +8150,7 @@
         <v>17</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>20</v>
@@ -8248,7 +8179,7 @@
         <v>16</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F23" s="7">
         <v>1038</v>
@@ -8263,7 +8194,7 @@
         <v>17</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>21</v>
@@ -8292,10 +8223,10 @@
         <v>16</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F24" s="7">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="G24" s="7">
         <v>1</v>
@@ -8304,7 +8235,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>28</v>
@@ -8336,10 +8267,10 @@
         <v>16</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F25" s="7">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="G25" s="7">
         <v>1</v>
@@ -8348,7 +8279,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>28</v>
@@ -8380,10 +8311,10 @@
         <v>16</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F26" s="7">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="G26" s="7">
         <v>1</v>
@@ -8392,7 +8323,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>28</v>
@@ -8424,10 +8355,10 @@
         <v>16</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F27" s="7">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="G27" s="7">
         <v>1</v>
@@ -8436,7 +8367,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>28</v>
@@ -8468,7 +8399,7 @@
         <v>16</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F28" s="7">
         <v>1760</v>
@@ -8483,7 +8414,7 @@
         <v>17</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>18</v>
@@ -8510,7 +8441,7 @@
         <v>16</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F29" s="7">
         <v>1760</v>
@@ -8525,7 +8456,7 @@
         <v>17</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>18</v>
@@ -8552,7 +8483,7 @@
         <v>16</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F30" s="11">
         <v>1760</v>
@@ -8567,7 +8498,7 @@
         <v>17</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K30" s="11" t="s">
         <v>21</v>
@@ -8594,7 +8525,7 @@
         <v>16</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F31" s="3">
         <v>1760</v>
@@ -8609,7 +8540,7 @@
         <v>17</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>18</v>
@@ -8638,7 +8569,7 @@
         <v>16</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F32" s="7">
         <v>1760</v>
@@ -8653,7 +8584,7 @@
         <v>17</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>20</v>
@@ -8682,7 +8613,7 @@
         <v>16</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F33" s="7">
         <v>1038</v>
@@ -8724,7 +8655,7 @@
         <v>16</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F34" s="7">
         <v>1038</v>
@@ -8766,7 +8697,7 @@
         <v>16</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F35" s="7">
         <v>1038</v>
@@ -8808,7 +8739,7 @@
         <v>16</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F36" s="7">
         <v>1038</v>
@@ -8850,7 +8781,7 @@
         <v>16</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F37" s="7">
         <v>1038</v>
@@ -8892,7 +8823,7 @@
         <v>16</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F38" s="7">
         <v>1038</v>
@@ -8934,10 +8865,10 @@
         <v>16</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F39" s="7">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="G39" s="7">
         <v>1</v>
@@ -8946,7 +8877,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>28</v>
@@ -8976,10 +8907,10 @@
         <v>16</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F40" s="7">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="G40" s="7">
         <v>1</v>
@@ -8988,7 +8919,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>28</v>
@@ -9018,10 +8949,10 @@
         <v>16</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F41" s="7">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="G41" s="7">
         <v>1</v>
@@ -9030,7 +8961,7 @@
         <v>1</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J41" s="7" t="s">
         <v>28</v>
@@ -9060,10 +8991,10 @@
         <v>16</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F42" s="11">
-        <v>1038</v>
+        <v>46</v>
+      </c>
+      <c r="F42" s="7">
+        <v>1039</v>
       </c>
       <c r="G42" s="11">
         <v>1</v>
@@ -9071,8 +9002,8 @@
       <c r="H42" s="11">
         <v>1</v>
       </c>
-      <c r="I42" s="11" t="s">
-        <v>27</v>
+      <c r="I42" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="J42" s="11" t="s">
         <v>28</v>
@@ -9102,7 +9033,7 @@
         <v>16</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F43" s="3">
         <v>1038</v>
@@ -9117,7 +9048,7 @@
         <v>17</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>18</v>
@@ -9144,7 +9075,7 @@
         <v>16</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F44" s="7">
         <v>1038</v>
@@ -9159,7 +9090,7 @@
         <v>17</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>18</v>
@@ -9186,7 +9117,7 @@
         <v>16</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F45" s="7">
         <v>1038</v>
@@ -9201,7 +9132,7 @@
         <v>17</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>19</v>
@@ -9228,7 +9159,7 @@
         <v>16</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F46" s="7">
         <v>1038</v>
@@ -9243,7 +9174,7 @@
         <v>17</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>19</v>
@@ -9270,7 +9201,7 @@
         <v>16</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F47" s="7">
         <v>1038</v>
@@ -9285,7 +9216,7 @@
         <v>17</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>20</v>
@@ -9312,7 +9243,7 @@
         <v>16</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F48" s="7">
         <v>1038</v>
@@ -9327,7 +9258,7 @@
         <v>17</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>20</v>
@@ -9354,7 +9285,7 @@
         <v>16</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F49" s="7">
         <v>1038</v>
@@ -9369,7 +9300,7 @@
         <v>17</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>21</v>
@@ -9396,7 +9327,7 @@
         <v>16</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F50" s="7">
         <v>1038</v>
@@ -9411,7 +9342,7 @@
         <v>17</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>22</v>
@@ -9438,10 +9369,10 @@
         <v>16</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F51" s="7">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="G51" s="7">
         <v>1</v>
@@ -9450,7 +9381,7 @@
         <v>1</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>28</v>
@@ -9480,10 +9411,10 @@
         <v>16</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F52" s="7">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="G52" s="7">
         <v>1</v>
@@ -9492,7 +9423,7 @@
         <v>1</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J52" s="7" t="s">
         <v>28</v>
@@ -9522,10 +9453,10 @@
         <v>16</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F53" s="7">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="G53" s="7">
         <v>1</v>
@@ -9534,7 +9465,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J53" s="7" t="s">
         <v>28</v>
@@ -9564,10 +9495,10 @@
         <v>16</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F54" s="7">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="G54" s="7">
         <v>1</v>
@@ -9576,7 +9507,7 @@
         <v>1</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J54" s="7" t="s">
         <v>28</v>
@@ -9606,10 +9537,10 @@
         <v>16</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F55" s="7">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="G55" s="7">
         <v>1</v>
@@ -9618,7 +9549,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J55" s="7" t="s">
         <v>28</v>
@@ -9663,7 +9594,7 @@
         <v>17</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K56" s="8" t="s">
         <v>19</v>
@@ -9707,7 +9638,7 @@
         <v>17</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>21</v>
@@ -9736,7 +9667,7 @@
         <v>16</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F58" s="7">
         <v>1760</v>
@@ -9751,7 +9682,7 @@
         <v>17</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>20</v>
@@ -9780,7 +9711,7 @@
         <v>16</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F59" s="11">
         <v>1760</v>
@@ -9795,7 +9726,7 @@
         <v>17</v>
       </c>
       <c r="J59" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K59" s="11" t="s">
         <v>21</v>
@@ -9824,10 +9755,10 @@
         <v>16</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F60" s="3">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="G60" s="3">
         <v>1</v>
@@ -9836,7 +9767,7 @@
         <v>1</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>28</v>
@@ -9868,10 +9799,10 @@
         <v>16</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F61" s="7">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="G61" s="7">
         <v>1</v>
@@ -9880,7 +9811,7 @@
         <v>1</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J61" s="7" t="s">
         <v>28</v>
@@ -9912,10 +9843,10 @@
         <v>16</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F62" s="7">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="G62" s="7">
         <v>1</v>
@@ -9924,7 +9855,7 @@
         <v>1</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J62" s="7" t="s">
         <v>28</v>
@@ -9956,10 +9887,10 @@
         <v>16</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F63" s="7">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="G63" s="7">
         <v>1</v>
@@ -9968,7 +9899,7 @@
         <v>1</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>28</v>
@@ -10000,10 +9931,10 @@
         <v>16</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F64" s="7">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="G64" s="7">
         <v>1</v>
@@ -10012,7 +9943,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J64" s="7" t="s">
         <v>28</v>
@@ -10044,7 +9975,7 @@
         <v>16</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F65" s="7">
         <v>1038</v>
@@ -10059,7 +9990,7 @@
         <v>17</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>18</v>
@@ -10088,7 +10019,7 @@
         <v>16</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F66" s="7">
         <v>1038</v>
@@ -10103,7 +10034,7 @@
         <v>17</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K66" s="7" t="s">
         <v>18</v>
@@ -10132,7 +10063,7 @@
         <v>16</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F67" s="7">
         <v>1038</v>
@@ -10147,7 +10078,7 @@
         <v>17</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K67" s="7" t="s">
         <v>19</v>
@@ -10176,7 +10107,7 @@
         <v>16</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F68" s="7">
         <v>1038</v>
@@ -10191,7 +10122,7 @@
         <v>17</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K68" s="7" t="s">
         <v>20</v>
@@ -10220,7 +10151,7 @@
         <v>16</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F69" s="7">
         <v>1038</v>
@@ -10235,7 +10166,7 @@
         <v>17</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>20</v>
@@ -10264,7 +10195,7 @@
         <v>16</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F70" s="7">
         <v>1038</v>
@@ -10279,7 +10210,7 @@
         <v>17</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K70" s="7" t="s">
         <v>21</v>
@@ -10308,7 +10239,7 @@
         <v>16</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F71" s="7">
         <v>1038</v>
@@ -10323,7 +10254,7 @@
         <v>17</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K71" s="7" t="s">
         <v>21</v>
@@ -10352,7 +10283,7 @@
         <v>16</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F72" s="7">
         <v>1038</v>
@@ -10367,7 +10298,7 @@
         <v>17</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K72" s="7" t="s">
         <v>22</v>
@@ -10411,7 +10342,7 @@
         <v>17</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K73" s="7" t="s">
         <v>18</v>
@@ -10455,7 +10386,7 @@
         <v>17</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K74" s="7" t="s">
         <v>21</v>
@@ -10484,7 +10415,7 @@
         <v>16</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F75" s="7">
         <v>1760</v>
@@ -10499,7 +10430,7 @@
         <v>17</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K75" s="7" t="s">
         <v>19</v>
@@ -10528,7 +10459,7 @@
         <v>16</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F76" s="11">
         <v>1760</v>
@@ -10543,7 +10474,7 @@
         <v>17</v>
       </c>
       <c r="J76" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K76" s="11" t="s">
         <v>20</v>
@@ -10572,10 +10503,10 @@
         <v>16</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F77" s="3">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="G77" s="3">
         <v>1</v>
@@ -10583,8 +10514,8 @@
       <c r="H77" s="3">
         <v>1</v>
       </c>
-      <c r="I77" s="3" t="s">
-        <v>27</v>
+      <c r="I77" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="J77" s="3" t="s">
         <v>28</v>
@@ -10614,10 +10545,10 @@
         <v>16</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F78" s="7">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="G78" s="7">
         <v>1</v>
@@ -10626,7 +10557,7 @@
         <v>1</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J78" s="7" t="s">
         <v>28</v>
@@ -10656,10 +10587,10 @@
         <v>16</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F79" s="7">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="G79" s="7">
         <v>1</v>
@@ -10668,7 +10599,7 @@
         <v>1</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J79" s="7" t="s">
         <v>28</v>
@@ -10698,10 +10629,10 @@
         <v>16</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F80" s="7">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="G80" s="7">
         <v>1</v>
@@ -10710,7 +10641,7 @@
         <v>1</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J80" s="7" t="s">
         <v>28</v>
@@ -10740,7 +10671,7 @@
         <v>16</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F81" s="7">
         <v>1038</v>
@@ -10755,7 +10686,7 @@
         <v>17</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K81" s="7" t="s">
         <v>18</v>
@@ -10782,7 +10713,7 @@
         <v>16</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F82" s="7">
         <v>1038</v>
@@ -10797,7 +10728,7 @@
         <v>17</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K82" s="7" t="s">
         <v>18</v>
@@ -10824,7 +10755,7 @@
         <v>16</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F83" s="7">
         <v>1038</v>
@@ -10839,7 +10770,7 @@
         <v>17</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K83" s="7" t="s">
         <v>19</v>
@@ -10866,7 +10797,7 @@
         <v>16</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F84" s="7">
         <v>1038</v>
@@ -10881,7 +10812,7 @@
         <v>17</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K84" s="7" t="s">
         <v>19</v>
@@ -10908,7 +10839,7 @@
         <v>16</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F85" s="7">
         <v>1038</v>
@@ -10923,7 +10854,7 @@
         <v>17</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K85" s="7" t="s">
         <v>20</v>
@@ -10950,7 +10881,7 @@
         <v>16</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F86" s="7">
         <v>1038</v>
@@ -10965,7 +10896,7 @@
         <v>17</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K86" s="7" t="s">
         <v>21</v>
@@ -10992,7 +10923,7 @@
         <v>16</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F87" s="7">
         <v>1038</v>
@@ -11007,7 +10938,7 @@
         <v>17</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K87" s="7" t="s">
         <v>21</v>
@@ -11049,7 +10980,7 @@
         <v>17</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K88" s="7" t="s">
         <v>18</v>
@@ -11091,7 +11022,7 @@
         <v>17</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K89" s="7" t="s">
         <v>20</v>
@@ -11118,7 +11049,7 @@
         <v>16</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F90" s="7">
         <v>1760</v>
@@ -11133,7 +11064,7 @@
         <v>17</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K90" s="7" t="s">
         <v>19</v>
@@ -11162,7 +11093,7 @@
         <v>16</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F91" s="11">
         <v>1760</v>
@@ -11177,7 +11108,7 @@
         <v>17</v>
       </c>
       <c r="J91" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K91" s="11" t="s">
         <v>20</v>
@@ -11200,13 +11131,13 @@
         <v>14</v>
       </c>
       <c r="C92" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D92" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D92" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="E92" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F92" s="3">
         <v>1075</v>
@@ -11221,7 +11152,7 @@
         <v>17</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K92" s="3" t="s">
         <v>18</v>
@@ -11244,13 +11175,13 @@
         <v>14</v>
       </c>
       <c r="C93" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D93" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D93" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="E93" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F93" s="7">
         <v>1075</v>
@@ -11265,7 +11196,7 @@
         <v>17</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K93" s="7" t="s">
         <v>19</v>
@@ -11288,13 +11219,13 @@
         <v>14</v>
       </c>
       <c r="C94" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D94" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D94" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="E94" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F94" s="7">
         <v>1075</v>
@@ -11309,7 +11240,7 @@
         <v>17</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K94" s="7" t="s">
         <v>20</v>
@@ -11332,13 +11263,13 @@
         <v>14</v>
       </c>
       <c r="C95" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D95" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D95" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="E95" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F95" s="7">
         <v>1075</v>
@@ -11353,7 +11284,7 @@
         <v>17</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K95" s="7" t="s">
         <v>21</v>
@@ -11376,13 +11307,13 @@
         <v>14</v>
       </c>
       <c r="C96" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D96" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D96" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="E96" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F96" s="7">
         <v>1075</v>
@@ -11397,7 +11328,7 @@
         <v>17</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K96" s="7" t="s">
         <v>22</v>
@@ -11420,16 +11351,16 @@
         <v>14</v>
       </c>
       <c r="C97" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D97" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D97" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="E97" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F97" s="7">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="G97" s="7">
         <v>1</v>
@@ -11438,10 +11369,10 @@
         <v>1</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K97" s="7" t="s">
         <v>18</v>
@@ -11464,16 +11395,16 @@
         <v>14</v>
       </c>
       <c r="C98" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D98" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D98" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="E98" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F98" s="7">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="G98" s="7">
         <v>1</v>
@@ -11482,10 +11413,10 @@
         <v>1</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J98" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K98" s="7" t="s">
         <v>18</v>
@@ -11508,16 +11439,16 @@
         <v>14</v>
       </c>
       <c r="C99" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D99" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D99" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="E99" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F99" s="7">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="G99" s="7">
         <v>1</v>
@@ -11526,10 +11457,10 @@
         <v>1</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K99" s="7" t="s">
         <v>19</v>
@@ -11552,16 +11483,16 @@
         <v>14</v>
       </c>
       <c r="C100" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D100" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D100" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="E100" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F100" s="7">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="G100" s="7">
         <v>1</v>
@@ -11570,10 +11501,10 @@
         <v>1</v>
       </c>
       <c r="I100" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J100" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K100" s="7" t="s">
         <v>19</v>
@@ -11596,16 +11527,16 @@
         <v>14</v>
       </c>
       <c r="C101" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D101" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D101" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="E101" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F101" s="7">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="G101" s="7">
         <v>1</v>
@@ -11614,10 +11545,10 @@
         <v>1</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K101" s="7" t="s">
         <v>20</v>
@@ -11640,16 +11571,16 @@
         <v>14</v>
       </c>
       <c r="C102" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D102" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D102" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="E102" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F102" s="7">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="G102" s="7">
         <v>1</v>
@@ -11658,10 +11589,10 @@
         <v>1</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K102" s="7" t="s">
         <v>20</v>
@@ -11684,16 +11615,16 @@
         <v>14</v>
       </c>
       <c r="C103" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D103" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D103" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="E103" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F103" s="7">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="G103" s="7">
         <v>1</v>
@@ -11702,10 +11633,10 @@
         <v>1</v>
       </c>
       <c r="I103" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K103" s="7" t="s">
         <v>21</v>
@@ -11728,16 +11659,16 @@
         <v>14</v>
       </c>
       <c r="C104" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D104" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D104" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="E104" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F104" s="7">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="G104" s="7">
         <v>1</v>
@@ -11746,10 +11677,10 @@
         <v>1</v>
       </c>
       <c r="I104" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J104" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K104" s="7" t="s">
         <v>21</v>
@@ -11772,16 +11703,16 @@
         <v>14</v>
       </c>
       <c r="C105" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D105" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D105" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="E105" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F105" s="7">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="G105" s="7">
         <v>1</v>
@@ -11790,10 +11721,10 @@
         <v>1</v>
       </c>
       <c r="I105" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J105" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K105" s="7" t="s">
         <v>22</v>
@@ -11816,10 +11747,10 @@
         <v>14</v>
       </c>
       <c r="C106" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D106" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="E106" s="7" t="s">
         <v>30</v>
@@ -11837,7 +11768,7 @@
         <v>17</v>
       </c>
       <c r="J106" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K106" s="7" t="s">
         <v>18</v>
@@ -11858,10 +11789,10 @@
         <v>14</v>
       </c>
       <c r="C107" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D107" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>30</v>
@@ -11879,7 +11810,7 @@
         <v>17</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K107" s="7" t="s">
         <v>21</v>
@@ -11900,10 +11831,10 @@
         <v>14</v>
       </c>
       <c r="C108" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D108" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="E108" s="7" t="s">
         <v>23</v>
@@ -11921,7 +11852,7 @@
         <v>17</v>
       </c>
       <c r="J108" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K108" s="7" t="s">
         <v>19</v>
@@ -11944,10 +11875,10 @@
         <v>14</v>
       </c>
       <c r="C109" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D109" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="D109" s="11" t="s">
-        <v>34</v>
       </c>
       <c r="E109" s="11" t="s">
         <v>23</v>
@@ -11965,7 +11896,7 @@
         <v>17</v>
       </c>
       <c r="J109" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K109" s="11" t="s">
         <v>20</v>
@@ -11988,16 +11919,16 @@
         <v>14</v>
       </c>
       <c r="C110" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D110" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D110" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="E110" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F110" s="3">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="G110" s="3">
         <v>1</v>
@@ -12009,7 +11940,7 @@
         <v>17</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K110" s="3" t="s">
         <v>18</v>
@@ -12021,7 +11952,7 @@
         <v>0.43402777777777773</v>
       </c>
       <c r="N110" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
@@ -12032,16 +11963,16 @@
         <v>14</v>
       </c>
       <c r="C111" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D111" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D111" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="E111" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F111" s="7">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="G111" s="7">
         <v>1</v>
@@ -12053,7 +11984,7 @@
         <v>17</v>
       </c>
       <c r="J111" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K111" s="7" t="s">
         <v>18</v>
@@ -12065,7 +11996,7 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="N111" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
@@ -12076,16 +12007,16 @@
         <v>14</v>
       </c>
       <c r="C112" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D112" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D112" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="E112" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F112" s="7">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="G112" s="7">
         <v>1</v>
@@ -12097,7 +12028,7 @@
         <v>17</v>
       </c>
       <c r="J112" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K112" s="7" t="s">
         <v>19</v>
@@ -12109,7 +12040,7 @@
         <v>0.43402777777777773</v>
       </c>
       <c r="N112" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
@@ -12120,16 +12051,16 @@
         <v>14</v>
       </c>
       <c r="C113" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D113" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D113" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="E113" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F113" s="7">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="G113" s="7">
         <v>1</v>
@@ -12141,7 +12072,7 @@
         <v>17</v>
       </c>
       <c r="J113" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K113" s="7" t="s">
         <v>19</v>
@@ -12153,7 +12084,7 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="N113" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
@@ -12164,16 +12095,16 @@
         <v>14</v>
       </c>
       <c r="C114" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D114" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D114" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="E114" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F114" s="7">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="G114" s="7">
         <v>1</v>
@@ -12185,7 +12116,7 @@
         <v>17</v>
       </c>
       <c r="J114" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K114" s="7" t="s">
         <v>19</v>
@@ -12197,7 +12128,7 @@
         <v>0.68055555555555547</v>
       </c>
       <c r="N114" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
@@ -12208,16 +12139,16 @@
         <v>14</v>
       </c>
       <c r="C115" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D115" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D115" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="E115" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F115" s="7">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="G115" s="7">
         <v>1</v>
@@ -12229,7 +12160,7 @@
         <v>17</v>
       </c>
       <c r="J115" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K115" s="7" t="s">
         <v>20</v>
@@ -12241,7 +12172,7 @@
         <v>0.43402777777777773</v>
       </c>
       <c r="N115" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
@@ -12252,16 +12183,16 @@
         <v>14</v>
       </c>
       <c r="C116" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D116" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D116" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="E116" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F116" s="7">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="G116" s="7">
         <v>1</v>
@@ -12273,7 +12204,7 @@
         <v>17</v>
       </c>
       <c r="J116" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K116" s="7" t="s">
         <v>20</v>
@@ -12285,7 +12216,7 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="N116" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
@@ -12296,16 +12227,16 @@
         <v>14</v>
       </c>
       <c r="C117" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D117" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D117" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="E117" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F117" s="7">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="G117" s="7">
         <v>1</v>
@@ -12317,7 +12248,7 @@
         <v>17</v>
       </c>
       <c r="J117" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K117" s="7" t="s">
         <v>20</v>
@@ -12329,7 +12260,7 @@
         <v>0.63888888888888895</v>
       </c>
       <c r="N117" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
@@ -12340,16 +12271,16 @@
         <v>14</v>
       </c>
       <c r="C118" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D118" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D118" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="E118" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F118" s="7">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="G118" s="7">
         <v>1</v>
@@ -12361,7 +12292,7 @@
         <v>17</v>
       </c>
       <c r="J118" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K118" s="7" t="s">
         <v>21</v>
@@ -12373,7 +12304,7 @@
         <v>0.43402777777777773</v>
       </c>
       <c r="N118" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
@@ -12384,16 +12315,16 @@
         <v>14</v>
       </c>
       <c r="C119" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D119" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D119" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="E119" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F119" s="7">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="G119" s="7">
         <v>1</v>
@@ -12405,7 +12336,7 @@
         <v>17</v>
       </c>
       <c r="J119" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K119" s="7" t="s">
         <v>21</v>
@@ -12417,7 +12348,7 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="N119" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
@@ -12428,16 +12359,16 @@
         <v>14</v>
       </c>
       <c r="C120" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D120" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D120" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="E120" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F120" s="7">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="G120" s="7">
         <v>1</v>
@@ -12449,7 +12380,7 @@
         <v>17</v>
       </c>
       <c r="J120" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K120" s="7" t="s">
         <v>21</v>
@@ -12461,7 +12392,7 @@
         <v>0.63888888888888895</v>
       </c>
       <c r="N120" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
@@ -12472,16 +12403,16 @@
         <v>14</v>
       </c>
       <c r="C121" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D121" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D121" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="E121" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F121" s="7">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="G121" s="7">
         <v>1</v>
@@ -12493,7 +12424,7 @@
         <v>17</v>
       </c>
       <c r="J121" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K121" s="7" t="s">
         <v>22</v>
@@ -12505,7 +12436,7 @@
         <v>0.43402777777777773</v>
       </c>
       <c r="N121" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
@@ -12516,16 +12447,16 @@
         <v>14</v>
       </c>
       <c r="C122" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D122" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D122" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="E122" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F122" s="7">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="G122" s="7">
         <v>1</v>
@@ -12537,7 +12468,7 @@
         <v>17</v>
       </c>
       <c r="J122" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K122" s="7" t="s">
         <v>22</v>
@@ -12549,7 +12480,7 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="N122" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
@@ -12560,10 +12491,10 @@
         <v>14</v>
       </c>
       <c r="C123" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D123" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="E123" s="7" t="s">
         <v>30</v>
@@ -12581,7 +12512,7 @@
         <v>17</v>
       </c>
       <c r="J123" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K123" s="7" t="s">
         <v>18</v>
@@ -12604,10 +12535,10 @@
         <v>14</v>
       </c>
       <c r="C124" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D124" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="E124" s="7" t="s">
         <v>30</v>
@@ -12625,7 +12556,7 @@
         <v>17</v>
       </c>
       <c r="J124" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K124" s="7" t="s">
         <v>20</v>
@@ -12648,10 +12579,10 @@
         <v>14</v>
       </c>
       <c r="C125" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D125" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="E125" s="7" t="s">
         <v>23</v>
@@ -12669,7 +12600,7 @@
         <v>17</v>
       </c>
       <c r="J125" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K125" s="7" t="s">
         <v>18</v>
@@ -12692,10 +12623,10 @@
         <v>14</v>
       </c>
       <c r="C126" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D126" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="D126" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="E126" s="11" t="s">
         <v>23</v>
@@ -12713,7 +12644,7 @@
         <v>17</v>
       </c>
       <c r="J126" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K126" s="11" t="s">
         <v>19</v>
@@ -12736,10 +12667,10 @@
         <v>14</v>
       </c>
       <c r="C127" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D127" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>30</v>
@@ -12757,7 +12688,7 @@
         <v>17</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K127" s="3" t="s">
         <v>18</v>
@@ -12778,10 +12709,10 @@
         <v>14</v>
       </c>
       <c r="C128" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D128" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="D128" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="E128" s="7" t="s">
         <v>30</v>
@@ -12799,7 +12730,7 @@
         <v>17</v>
       </c>
       <c r="J128" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K128" s="7" t="s">
         <v>20</v>
@@ -12820,10 +12751,10 @@
         <v>14</v>
       </c>
       <c r="C129" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D129" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="E129" s="7" t="s">
         <v>23</v>
@@ -12841,7 +12772,7 @@
         <v>17</v>
       </c>
       <c r="J129" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K129" s="7" t="s">
         <v>18</v>
@@ -12864,10 +12795,10 @@
         <v>14</v>
       </c>
       <c r="C130" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D130" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="E130" s="7" t="s">
         <v>23</v>
@@ -12885,7 +12816,7 @@
         <v>17</v>
       </c>
       <c r="J130" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K130" s="7" t="s">
         <v>19</v>
@@ -12908,10 +12839,10 @@
         <v>14</v>
       </c>
       <c r="C131" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D131" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="E131" s="7" t="s">
         <v>23</v>
@@ -12929,7 +12860,7 @@
         <v>17</v>
       </c>
       <c r="J131" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K131" s="7" t="s">
         <v>21</v>
@@ -12952,13 +12883,13 @@
         <v>14</v>
       </c>
       <c r="C132" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D132" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D132" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="E132" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F132" s="7">
         <v>1083</v>
@@ -12973,7 +12904,7 @@
         <v>17</v>
       </c>
       <c r="J132" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K132" s="7" t="s">
         <v>18</v>
@@ -12996,13 +12927,13 @@
         <v>14</v>
       </c>
       <c r="C133" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D133" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D133" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="E133" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F133" s="7">
         <v>1083</v>
@@ -13017,7 +12948,7 @@
         <v>17</v>
       </c>
       <c r="J133" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K133" s="7" t="s">
         <v>18</v>
@@ -13040,13 +12971,13 @@
         <v>14</v>
       </c>
       <c r="C134" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D134" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D134" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="E134" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F134" s="7">
         <v>1083</v>
@@ -13061,7 +12992,7 @@
         <v>17</v>
       </c>
       <c r="J134" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K134" s="7" t="s">
         <v>18</v>
@@ -13084,13 +13015,13 @@
         <v>14</v>
       </c>
       <c r="C135" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D135" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D135" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="E135" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F135" s="7">
         <v>1083</v>
@@ -13105,7 +13036,7 @@
         <v>17</v>
       </c>
       <c r="J135" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K135" s="7" t="s">
         <v>19</v>
@@ -13128,13 +13059,13 @@
         <v>14</v>
       </c>
       <c r="C136" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D136" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D136" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="E136" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F136" s="7">
         <v>1083</v>
@@ -13149,7 +13080,7 @@
         <v>17</v>
       </c>
       <c r="J136" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K136" s="7" t="s">
         <v>19</v>
@@ -13172,13 +13103,13 @@
         <v>14</v>
       </c>
       <c r="C137" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D137" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D137" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="E137" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F137" s="7">
         <v>1083</v>
@@ -13193,7 +13124,7 @@
         <v>17</v>
       </c>
       <c r="J137" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K137" s="7" t="s">
         <v>20</v>
@@ -13216,13 +13147,13 @@
         <v>14</v>
       </c>
       <c r="C138" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D138" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D138" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="E138" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F138" s="7">
         <v>1083</v>
@@ -13237,7 +13168,7 @@
         <v>17</v>
       </c>
       <c r="J138" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K138" s="7" t="s">
         <v>20</v>
@@ -13260,13 +13191,13 @@
         <v>14</v>
       </c>
       <c r="C139" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D139" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D139" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="E139" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F139" s="7">
         <v>1083</v>
@@ -13281,7 +13212,7 @@
         <v>17</v>
       </c>
       <c r="J139" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K139" s="7" t="s">
         <v>21</v>
@@ -13304,16 +13235,16 @@
         <v>14</v>
       </c>
       <c r="C140" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D140" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D140" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="E140" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F140" s="7">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="G140" s="7">
         <v>1</v>
@@ -13322,7 +13253,7 @@
         <v>1</v>
       </c>
       <c r="I140" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J140" s="7" t="s">
         <v>28</v>
@@ -13348,16 +13279,16 @@
         <v>14</v>
       </c>
       <c r="C141" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D141" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D141" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="E141" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F141" s="7">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="G141" s="7">
         <v>1</v>
@@ -13366,7 +13297,7 @@
         <v>1</v>
       </c>
       <c r="I141" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J141" s="7" t="s">
         <v>28</v>
@@ -13392,16 +13323,16 @@
         <v>14</v>
       </c>
       <c r="C142" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D142" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D142" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="E142" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F142" s="7">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="G142" s="7">
         <v>1</v>
@@ -13410,7 +13341,7 @@
         <v>1</v>
       </c>
       <c r="I142" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J142" s="7" t="s">
         <v>28</v>
@@ -13436,16 +13367,16 @@
         <v>14</v>
       </c>
       <c r="C143" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D143" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D143" s="11" t="s">
-        <v>40</v>
-      </c>
       <c r="E143" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F143" s="11">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="G143" s="11">
         <v>1</v>
@@ -13453,8 +13384,8 @@
       <c r="H143" s="11">
         <v>1</v>
       </c>
-      <c r="I143" s="11" t="s">
-        <v>27</v>
+      <c r="I143" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="J143" s="11" t="s">
         <v>28</v>
@@ -13480,10 +13411,10 @@
         <v>14</v>
       </c>
       <c r="C144" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D144" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>30</v>
@@ -13501,7 +13432,7 @@
         <v>17</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K144" s="3" t="s">
         <v>19</v>
@@ -13522,10 +13453,10 @@
         <v>14</v>
       </c>
       <c r="C145" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D145" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="D145" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="E145" s="7" t="s">
         <v>30</v>
@@ -13543,7 +13474,7 @@
         <v>17</v>
       </c>
       <c r="J145" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K145" s="7" t="s">
         <v>21</v>
@@ -13564,10 +13495,10 @@
         <v>14</v>
       </c>
       <c r="C146" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D146" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="D146" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="E146" s="7" t="s">
         <v>23</v>
@@ -13585,7 +13516,7 @@
         <v>17</v>
       </c>
       <c r="J146" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K146" s="7" t="s">
         <v>19</v>
@@ -13608,10 +13539,10 @@
         <v>14</v>
       </c>
       <c r="C147" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D147" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="D147" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="E147" s="7" t="s">
         <v>23</v>
@@ -13629,7 +13560,7 @@
         <v>17</v>
       </c>
       <c r="J147" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K147" s="7" t="s">
         <v>20</v>
@@ -13652,10 +13583,10 @@
         <v>14</v>
       </c>
       <c r="C148" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D148" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="D148" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="E148" s="7" t="s">
         <v>23</v>
@@ -13673,7 +13604,7 @@
         <v>17</v>
       </c>
       <c r="J148" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K148" s="7" t="s">
         <v>20</v>
@@ -13696,16 +13627,16 @@
         <v>14</v>
       </c>
       <c r="C149" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D149" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D149" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="E149" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F149" s="7">
-        <v>1090</v>
+        <v>1041</v>
       </c>
       <c r="G149" s="7">
         <v>1</v>
@@ -13714,7 +13645,7 @@
         <v>1</v>
       </c>
       <c r="I149" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J149" s="7" t="s">
         <v>28</v>
@@ -13740,16 +13671,16 @@
         <v>14</v>
       </c>
       <c r="C150" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D150" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D150" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="E150" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F150" s="7">
-        <v>1090</v>
+        <v>1041</v>
       </c>
       <c r="G150" s="7">
         <v>1</v>
@@ -13758,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="I150" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J150" s="7" t="s">
         <v>28</v>
@@ -13784,16 +13715,16 @@
         <v>14</v>
       </c>
       <c r="C151" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D151" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D151" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="E151" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F151" s="7">
-        <v>1090</v>
+        <v>1041</v>
       </c>
       <c r="G151" s="7">
         <v>1</v>
@@ -13802,7 +13733,7 @@
         <v>1</v>
       </c>
       <c r="I151" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J151" s="7" t="s">
         <v>28</v>
@@ -13828,16 +13759,16 @@
         <v>14</v>
       </c>
       <c r="C152" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D152" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D152" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="E152" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F152" s="7">
-        <v>1090</v>
+        <v>1041</v>
       </c>
       <c r="G152" s="7">
         <v>1</v>
@@ -13846,7 +13777,7 @@
         <v>1</v>
       </c>
       <c r="I152" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J152" s="7" t="s">
         <v>28</v>
@@ -13872,16 +13803,16 @@
         <v>14</v>
       </c>
       <c r="C153" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D153" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D153" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="E153" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F153" s="7">
-        <v>1090</v>
+        <v>1040</v>
       </c>
       <c r="G153" s="7">
         <v>1</v>
@@ -13893,7 +13824,7 @@
         <v>17</v>
       </c>
       <c r="J153" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K153" s="7" t="s">
         <v>19</v>
@@ -13916,16 +13847,16 @@
         <v>14</v>
       </c>
       <c r="C154" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D154" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D154" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="E154" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F154" s="7">
-        <v>1090</v>
+        <v>1040</v>
       </c>
       <c r="G154" s="7">
         <v>1</v>
@@ -13937,7 +13868,7 @@
         <v>17</v>
       </c>
       <c r="J154" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K154" s="7" t="s">
         <v>21</v>
@@ -13960,16 +13891,16 @@
         <v>14</v>
       </c>
       <c r="C155" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D155" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D155" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="E155" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F155" s="7">
-        <v>1090</v>
+        <v>1040</v>
       </c>
       <c r="G155" s="7">
         <v>1</v>
@@ -13981,7 +13912,7 @@
         <v>17</v>
       </c>
       <c r="J155" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K155" s="7" t="s">
         <v>21</v>
@@ -14004,16 +13935,16 @@
         <v>14</v>
       </c>
       <c r="C156" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D156" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D156" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="E156" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F156" s="7">
-        <v>1090</v>
+        <v>1040</v>
       </c>
       <c r="G156" s="7">
         <v>1</v>
@@ -14025,7 +13956,7 @@
         <v>17</v>
       </c>
       <c r="J156" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K156" s="7" t="s">
         <v>22</v>
@@ -14048,16 +13979,16 @@
         <v>14</v>
       </c>
       <c r="C157" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D157" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D157" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="E157" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F157" s="7">
-        <v>1090</v>
+        <v>1040</v>
       </c>
       <c r="G157" s="7">
         <v>1</v>
@@ -14069,7 +14000,7 @@
         <v>17</v>
       </c>
       <c r="J157" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K157" s="7" t="s">
         <v>22</v>
@@ -14092,16 +14023,16 @@
         <v>14</v>
       </c>
       <c r="C158" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D158" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D158" s="11" t="s">
-        <v>42</v>
-      </c>
       <c r="E158" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F158" s="11">
-        <v>1090</v>
+        <v>46</v>
+      </c>
+      <c r="F158" s="7">
+        <v>1040</v>
       </c>
       <c r="G158" s="11">
         <v>1</v>
@@ -14113,7 +14044,7 @@
         <v>17</v>
       </c>
       <c r="J158" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K158" s="11" t="s">
         <v>22</v>
